--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -441,9 +441,94 @@
         <v>dsf</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="B8" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="C8" t="str">
+        <v>ds</v>
+      </c>
+      <c r="D8" t="str">
+        <v>dsf</v>
+      </c>
+      <c r="E8" t="str">
+        <v>sdf</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="B9" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="C9" t="str">
+        <v>ds</v>
+      </c>
+      <c r="D9" t="str">
+        <v>dsf</v>
+      </c>
+      <c r="E9" t="str">
+        <v>sdf</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="B10" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="C10" t="str">
+        <v>ds</v>
+      </c>
+      <c r="D10" t="str">
+        <v>dsf</v>
+      </c>
+      <c r="E10" t="str">
+        <v>sdf</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="B11" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="C11" t="str">
+        <v>ds</v>
+      </c>
+      <c r="D11" t="str">
+        <v>dsf</v>
+      </c>
+      <c r="E11" t="str">
+        <v>sdf</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>sdsdf</v>
+      </c>
+      <c r="B12" t="str">
+        <v>sdf</v>
+      </c>
+      <c r="C12" t="str">
+        <v>ds</v>
+      </c>
+      <c r="D12" t="str">
+        <v>dsf</v>
+      </c>
+      <c r="E12" t="str">
+        <v>sdf</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,306 +397,660 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV2"/>
+  <dimension ref="A1:AR26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>name</v>
+        <v>SNO</v>
       </c>
       <c r="B1" t="str">
-        <v>companyEmail</v>
+        <v>Unit</v>
       </c>
       <c r="C1" t="str">
-        <v>linkedinUrl</v>
+        <v>Type of Eqpt</v>
       </c>
       <c r="D1" t="str">
-        <v>contactNumber</v>
+        <v>Issue Type</v>
       </c>
       <c r="E1" t="str">
-        <v>yourHRIS</v>
+        <v>BA No</v>
       </c>
       <c r="F1" t="str">
-        <v>unit</v>
+        <v>Chassis No</v>
       </c>
       <c r="G1" t="str">
-        <v>typeOfEquipment</v>
+        <v>Engine Org/OH</v>
       </c>
       <c r="H1" t="str">
-        <v>issueType</v>
+        <v>Eng Km</v>
       </c>
       <c r="I1" t="str">
-        <v>baNo</v>
+        <v>Eng Hrs</v>
       </c>
       <c r="J1" t="str">
-        <v>chassisNo</v>
+        <v>Chassis Km</v>
       </c>
       <c r="K1" t="str">
-        <v>engineOrgOH</v>
+        <v>Chassis Hrs</v>
       </c>
       <c r="L1" t="str">
-        <v>engKm</v>
+        <v>TM I Done</v>
       </c>
       <c r="M1" t="str">
-        <v>engHrs</v>
+        <v>TM I Due</v>
       </c>
       <c r="N1" t="str">
-        <v>chassisKm</v>
+        <v>TM II Done</v>
       </c>
       <c r="O1" t="str">
-        <v>chassisHrs</v>
+        <v>TM II Due</v>
       </c>
       <c r="P1" t="str">
-        <v>tmIDone</v>
+        <v>MR-I Due Dt</v>
       </c>
       <c r="Q1" t="str">
-        <v>tmIDue</v>
+        <v>MR-I Done Dt</v>
       </c>
       <c r="R1" t="str">
-        <v>tmIIDone</v>
+        <v>OH-I Due Dt</v>
       </c>
       <c r="S1" t="str">
-        <v>tmIIDue</v>
+        <v>OH-I Done Dt</v>
       </c>
       <c r="T1" t="str">
-        <v>mrIDueDt</v>
+        <v>MR II Due</v>
       </c>
       <c r="U1" t="str">
-        <v>mrIDoneDt</v>
+        <v>MR II Done</v>
       </c>
       <c r="V1" t="str">
-        <v>ohIDueDt</v>
+        <v>OH II Due</v>
       </c>
       <c r="W1" t="str">
-        <v>ohIDoneDt</v>
+        <v>OH II Done</v>
       </c>
       <c r="X1" t="str">
-        <v>mrIIDue</v>
+        <v>SER/R2/EOA/VOR</v>
       </c>
       <c r="Y1" t="str">
-        <v>mrIIDone</v>
+        <v>Assy</v>
       </c>
       <c r="Z1" t="str">
-        <v>ohIIDue</v>
+        <v>Section</v>
       </c>
       <c r="AA1" t="str">
-        <v>ohIIDone</v>
+        <v>Nature of Defect</v>
       </c>
       <c r="AB1" t="str">
-        <v>serR2EOAVOR</v>
+        <v>Demand Placed To</v>
       </c>
       <c r="AC1" t="str">
-        <v>assy</v>
+        <v>Demand No &amp; Dt</v>
       </c>
       <c r="AD1" t="str">
-        <v>section</v>
+        <v>Cont No &amp; Dt</v>
       </c>
       <c r="AE1" t="str">
-        <v>natureOfDefect</v>
+        <v>Work Order No &amp; Dt</v>
       </c>
       <c r="AF1" t="str">
-        <v>demandPlacedTo</v>
+        <v>Fwd To</v>
       </c>
       <c r="AG1" t="str">
-        <v>demandNoDt</v>
+        <v>Since</v>
       </c>
       <c r="AH1" t="str">
-        <v>contNoDt</v>
+        <v>Present Status</v>
       </c>
       <c r="AI1" t="str">
-        <v>workOrderNoDate</v>
+        <v>Under Repair Time</v>
       </c>
       <c r="AJ1" t="str">
-        <v>fwdTo</v>
+        <v>EFC/RDS Fired</v>
       </c>
       <c r="AK1" t="str">
-        <v>since</v>
+        <v>Chamber Elongation</v>
       </c>
       <c r="AL1" t="str">
-        <v>presentStatus</v>
+        <v>Bore</v>
       </c>
       <c r="AM1" t="str">
-        <v>underRepairTime</v>
+        <v>Gun Pull Back Done Date</v>
       </c>
       <c r="AN1" t="str">
-        <v>efcRDSFired</v>
+        <v>SI Details</v>
       </c>
       <c r="AO1" t="str">
-        <v>chamberElongation</v>
+        <v>Fume Extractor</v>
       </c>
       <c r="AP1" t="str">
-        <v>bore</v>
+        <v>N2 Purging Due Date</v>
       </c>
       <c r="AQ1" t="str">
-        <v>gunPullBackDoneDate</v>
+        <v>N2 Purging Carried Out</v>
       </c>
       <c r="AR1" t="str">
-        <v>siDetails</v>
-      </c>
-      <c r="AS1" t="str">
-        <v>fumeExtractor</v>
-      </c>
-      <c r="AT1" t="str">
-        <v>n2PurgingDueDate</v>
-      </c>
-      <c r="AU1" t="str">
-        <v>n2PurgingCarriedOut</v>
-      </c>
-      <c r="AV1" t="str">
-        <v>getterActivationDoneDate</v>
+        <v>Getter Activation Done Date (Check Every 3 Months)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v/>
-      </c>
-      <c r="B2" t="str">
-        <v/>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v/>
-      </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2" t="str">
-        <v/>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-      <c r="L2" t="str">
-        <v/>
-      </c>
-      <c r="M2" t="str">
-        <v/>
-      </c>
-      <c r="N2" t="str">
-        <v/>
-      </c>
-      <c r="O2" t="str">
-        <v/>
-      </c>
-      <c r="P2" t="str">
-        <v/>
-      </c>
-      <c r="Q2" t="str">
-        <v/>
-      </c>
-      <c r="R2" t="str">
-        <v/>
-      </c>
-      <c r="S2" t="str">
-        <v/>
-      </c>
-      <c r="T2" t="str">
-        <v/>
-      </c>
-      <c r="U2" t="str">
-        <v/>
-      </c>
-      <c r="V2" t="str">
-        <v/>
-      </c>
-      <c r="W2" t="str">
-        <v/>
-      </c>
-      <c r="X2" t="str">
-        <v/>
-      </c>
-      <c r="Y2" t="str">
-        <v/>
-      </c>
-      <c r="Z2" t="str">
-        <v/>
-      </c>
-      <c r="AA2" t="str">
-        <v/>
-      </c>
-      <c r="AB2" t="str">
-        <v/>
-      </c>
-      <c r="AC2" t="str">
-        <v/>
-      </c>
-      <c r="AD2" t="str">
-        <v/>
-      </c>
-      <c r="AE2" t="str">
-        <v/>
-      </c>
-      <c r="AF2" t="str">
-        <v/>
-      </c>
-      <c r="AG2" t="str">
-        <v/>
-      </c>
-      <c r="AH2" t="str">
-        <v/>
-      </c>
-      <c r="AI2" t="str">
-        <v/>
-      </c>
-      <c r="AJ2" t="str">
-        <v/>
-      </c>
-      <c r="AK2" t="str">
-        <v/>
-      </c>
-      <c r="AL2" t="str">
-        <v/>
-      </c>
-      <c r="AM2" t="str">
-        <v/>
-      </c>
-      <c r="AN2" t="str">
-        <v/>
-      </c>
-      <c r="AO2" t="str">
-        <v/>
-      </c>
-      <c r="AP2" t="str">
-        <v/>
-      </c>
-      <c r="AQ2" t="str">
-        <v/>
-      </c>
-      <c r="AR2" t="str">
-        <v/>
-      </c>
-      <c r="AS2" t="str">
-        <v/>
-      </c>
-      <c r="AT2" t="str">
-        <v/>
-      </c>
-      <c r="AU2" t="str">
-        <v/>
-      </c>
-      <c r="AV2" t="str">
-        <v/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>23</v>
+      </c>
+      <c r="B24" t="str">
+        <v>First</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+      <c r="K24" t="str">
+        <v/>
+      </c>
+      <c r="L24" t="str">
+        <v/>
+      </c>
+      <c r="M24" t="str">
+        <v/>
+      </c>
+      <c r="N24" t="str">
+        <v/>
+      </c>
+      <c r="O24" t="str">
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v/>
+      </c>
+      <c r="Q24" t="str">
+        <v/>
+      </c>
+      <c r="R24" t="str">
+        <v/>
+      </c>
+      <c r="S24" t="str">
+        <v/>
+      </c>
+      <c r="T24" t="str">
+        <v/>
+      </c>
+      <c r="U24" t="str">
+        <v/>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+      <c r="W24" t="str">
+        <v/>
+      </c>
+      <c r="X24" t="str">
+        <v/>
+      </c>
+      <c r="Y24" t="str">
+        <v/>
+      </c>
+      <c r="Z24" t="str">
+        <v/>
+      </c>
+      <c r="AA24" t="str">
+        <v/>
+      </c>
+      <c r="AB24" t="str">
+        <v/>
+      </c>
+      <c r="AC24" t="str">
+        <v/>
+      </c>
+      <c r="AD24" t="str">
+        <v/>
+      </c>
+      <c r="AE24" t="str">
+        <v/>
+      </c>
+      <c r="AF24" t="str">
+        <v/>
+      </c>
+      <c r="AG24" t="str">
+        <v/>
+      </c>
+      <c r="AH24" t="str">
+        <v/>
+      </c>
+      <c r="AI24" t="str">
+        <v/>
+      </c>
+      <c r="AJ24" t="str">
+        <v/>
+      </c>
+      <c r="AK24" t="str">
+        <v/>
+      </c>
+      <c r="AL24" t="str">
+        <v/>
+      </c>
+      <c r="AM24" t="str">
+        <v/>
+      </c>
+      <c r="AN24" t="str">
+        <v/>
+      </c>
+      <c r="AO24" t="str">
+        <v/>
+      </c>
+      <c r="AP24" t="str">
+        <v/>
+      </c>
+      <c r="AQ24" t="str">
+        <v/>
+      </c>
+      <c r="AR24" t="str">
+        <v>Last</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>24</v>
+      </c>
+      <c r="B25" t="str">
+        <v>First First</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+      <c r="K25" t="str">
+        <v/>
+      </c>
+      <c r="L25" t="str">
+        <v/>
+      </c>
+      <c r="M25" t="str">
+        <v/>
+      </c>
+      <c r="N25" t="str">
+        <v/>
+      </c>
+      <c r="O25" t="str">
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v/>
+      </c>
+      <c r="Q25" t="str">
+        <v/>
+      </c>
+      <c r="R25" t="str">
+        <v/>
+      </c>
+      <c r="S25" t="str">
+        <v/>
+      </c>
+      <c r="T25" t="str">
+        <v/>
+      </c>
+      <c r="U25" t="str">
+        <v/>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+      <c r="W25" t="str">
+        <v/>
+      </c>
+      <c r="X25" t="str">
+        <v/>
+      </c>
+      <c r="Y25" t="str">
+        <v/>
+      </c>
+      <c r="Z25" t="str">
+        <v/>
+      </c>
+      <c r="AA25" t="str">
+        <v/>
+      </c>
+      <c r="AB25" t="str">
+        <v/>
+      </c>
+      <c r="AC25" t="str">
+        <v/>
+      </c>
+      <c r="AD25" t="str">
+        <v/>
+      </c>
+      <c r="AE25" t="str">
+        <v/>
+      </c>
+      <c r="AF25" t="str">
+        <v/>
+      </c>
+      <c r="AG25" t="str">
+        <v/>
+      </c>
+      <c r="AH25" t="str">
+        <v/>
+      </c>
+      <c r="AI25" t="str">
+        <v/>
+      </c>
+      <c r="AJ25" t="str">
+        <v/>
+      </c>
+      <c r="AK25" t="str">
+        <v/>
+      </c>
+      <c r="AL25" t="str">
+        <v/>
+      </c>
+      <c r="AM25" t="str">
+        <v/>
+      </c>
+      <c r="AN25" t="str">
+        <v/>
+      </c>
+      <c r="AO25" t="str">
+        <v/>
+      </c>
+      <c r="AP25" t="str">
+        <v/>
+      </c>
+      <c r="AQ25" t="str">
+        <v/>
+      </c>
+      <c r="AR25" t="str">
+        <v>Last Last</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>25</v>
+      </c>
+      <c r="B26" t="str">
+        <v>First First</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+      <c r="K26" t="str">
+        <v/>
+      </c>
+      <c r="L26" t="str">
+        <v/>
+      </c>
+      <c r="M26" t="str">
+        <v/>
+      </c>
+      <c r="N26" t="str">
+        <v/>
+      </c>
+      <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
+        <v/>
+      </c>
+      <c r="Q26" t="str">
+        <v/>
+      </c>
+      <c r="R26" t="str">
+        <v/>
+      </c>
+      <c r="S26" t="str">
+        <v/>
+      </c>
+      <c r="T26" t="str">
+        <v/>
+      </c>
+      <c r="U26" t="str">
+        <v/>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+      <c r="W26" t="str">
+        <v/>
+      </c>
+      <c r="X26" t="str">
+        <v/>
+      </c>
+      <c r="Y26" t="str">
+        <v/>
+      </c>
+      <c r="Z26" t="str">
+        <v/>
+      </c>
+      <c r="AA26" t="str">
+        <v/>
+      </c>
+      <c r="AB26" t="str">
+        <v/>
+      </c>
+      <c r="AC26" t="str">
+        <v/>
+      </c>
+      <c r="AD26" t="str">
+        <v/>
+      </c>
+      <c r="AE26" t="str">
+        <v/>
+      </c>
+      <c r="AF26" t="str">
+        <v/>
+      </c>
+      <c r="AG26" t="str">
+        <v/>
+      </c>
+      <c r="AH26" t="str">
+        <v/>
+      </c>
+      <c r="AI26" t="str">
+        <v/>
+      </c>
+      <c r="AJ26" t="str">
+        <v/>
+      </c>
+      <c r="AK26" t="str">
+        <v/>
+      </c>
+      <c r="AL26" t="str">
+        <v/>
+      </c>
+      <c r="AM26" t="str">
+        <v/>
+      </c>
+      <c r="AN26" t="str">
+        <v/>
+      </c>
+      <c r="AO26" t="str">
+        <v/>
+      </c>
+      <c r="AP26" t="str">
+        <v/>
+      </c>
+      <c r="AQ26" t="str">
+        <v/>
+      </c>
+      <c r="AR26" t="str">
+        <v>Last Last</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AV2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR26"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR83"/>
+  <dimension ref="A1:AR84"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6712,10 +6712,144 @@
         <v/>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>83</v>
+      </c>
+      <c r="B84" t="str">
+        <v>dsdsdsds</v>
+      </c>
+      <c r="C84" t="str">
+        <v/>
+      </c>
+      <c r="D84" t="str">
+        <v/>
+      </c>
+      <c r="E84" t="str">
+        <v/>
+      </c>
+      <c r="F84" t="str">
+        <v/>
+      </c>
+      <c r="G84" t="str">
+        <v/>
+      </c>
+      <c r="H84" t="str">
+        <v/>
+      </c>
+      <c r="I84" t="str">
+        <v/>
+      </c>
+      <c r="J84" t="str">
+        <v/>
+      </c>
+      <c r="K84" t="str">
+        <v/>
+      </c>
+      <c r="L84" t="str">
+        <v/>
+      </c>
+      <c r="M84" t="str">
+        <v/>
+      </c>
+      <c r="N84" t="str">
+        <v/>
+      </c>
+      <c r="O84" t="str">
+        <v/>
+      </c>
+      <c r="P84" t="str">
+        <v/>
+      </c>
+      <c r="Q84" t="str">
+        <v/>
+      </c>
+      <c r="R84" t="str">
+        <v/>
+      </c>
+      <c r="S84" t="str">
+        <v/>
+      </c>
+      <c r="T84" t="str">
+        <v/>
+      </c>
+      <c r="U84" t="str">
+        <v/>
+      </c>
+      <c r="V84" t="str">
+        <v/>
+      </c>
+      <c r="W84" t="str">
+        <v/>
+      </c>
+      <c r="X84" t="str">
+        <v/>
+      </c>
+      <c r="Y84" t="str">
+        <v/>
+      </c>
+      <c r="Z84" t="str">
+        <v/>
+      </c>
+      <c r="AA84" t="str">
+        <v/>
+      </c>
+      <c r="AB84" t="str">
+        <v/>
+      </c>
+      <c r="AC84" t="str">
+        <v/>
+      </c>
+      <c r="AD84" t="str">
+        <v/>
+      </c>
+      <c r="AE84" t="str">
+        <v/>
+      </c>
+      <c r="AF84" t="str">
+        <v/>
+      </c>
+      <c r="AG84" t="str">
+        <v/>
+      </c>
+      <c r="AH84" t="str">
+        <v/>
+      </c>
+      <c r="AI84" t="str">
+        <v/>
+      </c>
+      <c r="AJ84" t="str">
+        <v/>
+      </c>
+      <c r="AK84" t="str">
+        <v/>
+      </c>
+      <c r="AL84" t="str">
+        <v/>
+      </c>
+      <c r="AM84" t="str">
+        <v/>
+      </c>
+      <c r="AN84" t="str">
+        <v/>
+      </c>
+      <c r="AO84" t="str">
+        <v/>
+      </c>
+      <c r="AP84" t="str">
+        <v/>
+      </c>
+      <c r="AQ84" t="str">
+        <v/>
+      </c>
+      <c r="AR84" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR83"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR84"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR84"/>
+  <dimension ref="A1:AR85"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -6846,10 +6846,144 @@
         <v/>
       </c>
     </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>84</v>
+      </c>
+      <c r="B85" t="str">
+        <v>asd</v>
+      </c>
+      <c r="C85" t="str">
+        <v/>
+      </c>
+      <c r="D85" t="str">
+        <v>sad</v>
+      </c>
+      <c r="E85" t="str">
+        <v/>
+      </c>
+      <c r="F85" t="str">
+        <v>sda</v>
+      </c>
+      <c r="G85" t="str">
+        <v/>
+      </c>
+      <c r="H85" t="str">
+        <v>sda</v>
+      </c>
+      <c r="I85" t="str">
+        <v/>
+      </c>
+      <c r="J85" t="str">
+        <v/>
+      </c>
+      <c r="K85" t="str">
+        <v/>
+      </c>
+      <c r="L85" t="str">
+        <v/>
+      </c>
+      <c r="M85" t="str">
+        <v/>
+      </c>
+      <c r="N85" t="str">
+        <v/>
+      </c>
+      <c r="O85" t="str">
+        <v/>
+      </c>
+      <c r="P85" t="str">
+        <v/>
+      </c>
+      <c r="Q85" t="str">
+        <v/>
+      </c>
+      <c r="R85" t="str">
+        <v/>
+      </c>
+      <c r="S85" t="str">
+        <v/>
+      </c>
+      <c r="T85" t="str">
+        <v/>
+      </c>
+      <c r="U85" t="str">
+        <v/>
+      </c>
+      <c r="V85" t="str">
+        <v/>
+      </c>
+      <c r="W85" t="str">
+        <v/>
+      </c>
+      <c r="X85" t="str">
+        <v/>
+      </c>
+      <c r="Y85" t="str">
+        <v/>
+      </c>
+      <c r="Z85" t="str">
+        <v/>
+      </c>
+      <c r="AA85" t="str">
+        <v/>
+      </c>
+      <c r="AB85" t="str">
+        <v/>
+      </c>
+      <c r="AC85" t="str">
+        <v/>
+      </c>
+      <c r="AD85" t="str">
+        <v/>
+      </c>
+      <c r="AE85" t="str">
+        <v/>
+      </c>
+      <c r="AF85" t="str">
+        <v/>
+      </c>
+      <c r="AG85" t="str">
+        <v/>
+      </c>
+      <c r="AH85" t="str">
+        <v/>
+      </c>
+      <c r="AI85" t="str">
+        <v/>
+      </c>
+      <c r="AJ85" t="str">
+        <v/>
+      </c>
+      <c r="AK85" t="str">
+        <v/>
+      </c>
+      <c r="AL85" t="str">
+        <v/>
+      </c>
+      <c r="AM85" t="str">
+        <v/>
+      </c>
+      <c r="AN85" t="str">
+        <v/>
+      </c>
+      <c r="AO85" t="str">
+        <v/>
+      </c>
+      <c r="AP85" t="str">
+        <v/>
+      </c>
+      <c r="AQ85" t="str">
+        <v/>
+      </c>
+      <c r="AR85" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR84"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR85"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="428">
   <si>
     <t>SNO</t>
   </si>
@@ -1188,6 +1188,132 @@
   </si>
   <si>
     <t>23-10-2042</t>
+  </si>
+  <si>
+    <t>23-10-2043</t>
+  </si>
+  <si>
+    <t>23-10-2044</t>
+  </si>
+  <si>
+    <t>23-10-2045</t>
+  </si>
+  <si>
+    <t>23-10-2046</t>
+  </si>
+  <si>
+    <t>23-10-2047</t>
+  </si>
+  <si>
+    <t>23-10-2048</t>
+  </si>
+  <si>
+    <t>23-10-2049</t>
+  </si>
+  <si>
+    <t>23-10-2050</t>
+  </si>
+  <si>
+    <t>23-10-2051</t>
+  </si>
+  <si>
+    <t>23-10-2052</t>
+  </si>
+  <si>
+    <t>23-10-2053</t>
+  </si>
+  <si>
+    <t>23-10-2054</t>
+  </si>
+  <si>
+    <t>23-10-2055</t>
+  </si>
+  <si>
+    <t>23-10-2056</t>
+  </si>
+  <si>
+    <t>23-10-2057</t>
+  </si>
+  <si>
+    <t>23-10-2058</t>
+  </si>
+  <si>
+    <t>23-10-2059</t>
+  </si>
+  <si>
+    <t>23-10-2060</t>
+  </si>
+  <si>
+    <t>23-10-2061</t>
+  </si>
+  <si>
+    <t>23-10-2062</t>
+  </si>
+  <si>
+    <t>23-10-2063</t>
+  </si>
+  <si>
+    <t>23-10-2064</t>
+  </si>
+  <si>
+    <t>23-10-2065</t>
+  </si>
+  <si>
+    <t>23-10-2066</t>
+  </si>
+  <si>
+    <t>23-10-2067</t>
+  </si>
+  <si>
+    <t>23-10-2068</t>
+  </si>
+  <si>
+    <t>23-10-2069</t>
+  </si>
+  <si>
+    <t>23-10-2070</t>
+  </si>
+  <si>
+    <t>23-10-2071</t>
+  </si>
+  <si>
+    <t>23-10-2072</t>
+  </si>
+  <si>
+    <t>23-10-2073</t>
+  </si>
+  <si>
+    <t>23-10-2074</t>
+  </si>
+  <si>
+    <t>23-10-2075</t>
+  </si>
+  <si>
+    <t>23-10-2076</t>
+  </si>
+  <si>
+    <t>23-10-2077</t>
+  </si>
+  <si>
+    <t>23-10-2078</t>
+  </si>
+  <si>
+    <t>23-10-2079</t>
+  </si>
+  <si>
+    <t>23-10-2080</t>
+  </si>
+  <si>
+    <t>23-10-2081</t>
+  </si>
+  <si>
+    <t>23-10-2082</t>
+  </si>
+  <si>
+    <t>23-10-2083</t>
+  </si>
+  <si>
+    <t>23-10-2084</t>
   </si>
 </sst>
 </file>
@@ -1566,8 +1692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5005,6 +5131,9 @@
       <c r="K44">
         <v>1297</v>
       </c>
+      <c r="M44" t="s">
+        <v>386</v>
+      </c>
       <c r="P44" t="s">
         <v>306</v>
       </c>
@@ -5067,8 +5196,8 @@
       <c r="L45">
         <v>44445</v>
       </c>
-      <c r="M45">
-        <v>44810</v>
+      <c r="M45" t="s">
+        <v>387</v>
       </c>
       <c r="N45">
         <v>44445</v>
@@ -5138,8 +5267,8 @@
       <c r="L46">
         <v>44829</v>
       </c>
-      <c r="M46">
-        <v>45194</v>
+      <c r="M46" t="s">
+        <v>388</v>
       </c>
       <c r="N46">
         <v>44829</v>
@@ -5206,8 +5335,8 @@
       <c r="L47">
         <v>45035</v>
       </c>
-      <c r="M47">
-        <v>45401</v>
+      <c r="M47" t="s">
+        <v>389</v>
       </c>
       <c r="N47">
         <v>45035</v>
@@ -5277,8 +5406,8 @@
       <c r="L48">
         <v>44834</v>
       </c>
-      <c r="M48">
-        <v>45199</v>
+      <c r="M48" t="s">
+        <v>390</v>
       </c>
       <c r="N48">
         <v>44834</v>
@@ -5348,8 +5477,8 @@
       <c r="L49">
         <v>44830</v>
       </c>
-      <c r="M49">
-        <v>45195</v>
+      <c r="M49" t="s">
+        <v>391</v>
       </c>
       <c r="N49">
         <v>44407</v>
@@ -5419,8 +5548,8 @@
       <c r="L50">
         <v>44813</v>
       </c>
-      <c r="M50">
-        <v>45178</v>
+      <c r="M50" t="s">
+        <v>392</v>
       </c>
       <c r="N50">
         <v>44456</v>
@@ -5487,8 +5616,8 @@
       <c r="L51">
         <v>44817</v>
       </c>
-      <c r="M51">
-        <v>45182</v>
+      <c r="M51" t="s">
+        <v>393</v>
       </c>
       <c r="N51">
         <v>44453</v>
@@ -5576,8 +5705,8 @@
       <c r="L52">
         <v>45178</v>
       </c>
-      <c r="M52">
-        <v>45544</v>
+      <c r="M52" t="s">
+        <v>394</v>
       </c>
       <c r="N52">
         <v>44456</v>
@@ -5665,8 +5794,8 @@
       <c r="L53">
         <v>44764</v>
       </c>
-      <c r="M53">
-        <v>45129</v>
+      <c r="M53" t="s">
+        <v>395</v>
       </c>
       <c r="N53">
         <v>44399</v>
@@ -5754,8 +5883,8 @@
       <c r="L54">
         <v>44743</v>
       </c>
-      <c r="M54">
-        <v>45108</v>
+      <c r="M54" t="s">
+        <v>396</v>
       </c>
       <c r="N54">
         <v>44811</v>
@@ -5843,8 +5972,8 @@
       <c r="L55">
         <v>44810</v>
       </c>
-      <c r="M55">
-        <v>45175</v>
+      <c r="M55" t="s">
+        <v>397</v>
       </c>
       <c r="N55">
         <v>44445</v>
@@ -5932,8 +6061,8 @@
       <c r="L56">
         <v>44570</v>
       </c>
-      <c r="M56">
-        <v>44935</v>
+      <c r="M56" t="s">
+        <v>398</v>
       </c>
       <c r="N56">
         <v>44821</v>
@@ -6018,6 +6147,9 @@
       <c r="K57">
         <v>1189</v>
       </c>
+      <c r="M57" t="s">
+        <v>399</v>
+      </c>
       <c r="P57" t="s">
         <v>319</v>
       </c>
@@ -6101,8 +6233,8 @@
       <c r="L58">
         <v>45043</v>
       </c>
-      <c r="M58">
-        <v>45409</v>
+      <c r="M58" t="s">
+        <v>400</v>
       </c>
       <c r="N58" t="s">
         <v>181</v>
@@ -6172,8 +6304,8 @@
       <c r="L59">
         <v>44728</v>
       </c>
-      <c r="M59">
-        <v>45093</v>
+      <c r="M59" t="s">
+        <v>401</v>
       </c>
       <c r="N59">
         <v>44816</v>
@@ -6261,8 +6393,8 @@
       <c r="L60">
         <v>44826</v>
       </c>
-      <c r="M60">
-        <v>45191</v>
+      <c r="M60" t="s">
+        <v>402</v>
       </c>
       <c r="N60">
         <v>45191</v>
@@ -6332,8 +6464,8 @@
       <c r="L61">
         <v>44926</v>
       </c>
-      <c r="M61">
-        <v>45273</v>
+      <c r="M61" t="s">
+        <v>403</v>
       </c>
       <c r="N61">
         <v>44925</v>
@@ -6403,8 +6535,8 @@
       <c r="L62">
         <v>44834</v>
       </c>
-      <c r="M62">
-        <v>45199</v>
+      <c r="M62" t="s">
+        <v>404</v>
       </c>
       <c r="N62">
         <v>44452</v>
@@ -6489,8 +6621,8 @@
       <c r="L63">
         <v>44817</v>
       </c>
-      <c r="M63">
-        <v>45182</v>
+      <c r="M63" t="s">
+        <v>405</v>
       </c>
       <c r="N63">
         <v>44458</v>
@@ -6575,8 +6707,8 @@
       <c r="L64">
         <v>44922</v>
       </c>
-      <c r="M64">
-        <v>45287</v>
+      <c r="M64" t="s">
+        <v>406</v>
       </c>
       <c r="N64">
         <v>44446</v>
@@ -6664,8 +6796,8 @@
       <c r="L65">
         <v>44923</v>
       </c>
-      <c r="M65">
-        <v>45105</v>
+      <c r="M65" t="s">
+        <v>407</v>
       </c>
       <c r="N65">
         <v>44726</v>
@@ -6744,8 +6876,8 @@
       <c r="L66">
         <v>44885</v>
       </c>
-      <c r="M66">
-        <v>45066</v>
+      <c r="M66" t="s">
+        <v>408</v>
       </c>
       <c r="N66">
         <v>44930</v>
@@ -6824,8 +6956,8 @@
       <c r="L67">
         <v>45076</v>
       </c>
-      <c r="M67">
-        <v>45260</v>
+      <c r="M67" t="s">
+        <v>409</v>
       </c>
       <c r="N67">
         <v>44864</v>
@@ -6886,8 +7018,8 @@
       <c r="L68">
         <v>44903</v>
       </c>
-      <c r="M68">
-        <v>45085</v>
+      <c r="M68" t="s">
+        <v>410</v>
       </c>
       <c r="N68">
         <v>44749</v>
@@ -6948,8 +7080,8 @@
       <c r="L69">
         <v>45021</v>
       </c>
-      <c r="M69">
-        <v>45204</v>
+      <c r="M69" t="s">
+        <v>411</v>
       </c>
       <c r="N69">
         <v>45021</v>
@@ -7010,8 +7142,8 @@
       <c r="L70">
         <v>44917</v>
       </c>
-      <c r="M70">
-        <v>45099</v>
+      <c r="M70" t="s">
+        <v>412</v>
       </c>
       <c r="N70">
         <v>45020</v>
@@ -7093,8 +7225,8 @@
       <c r="L71">
         <v>44989</v>
       </c>
-      <c r="M71">
-        <v>45173</v>
+      <c r="M71" t="s">
+        <v>413</v>
       </c>
       <c r="N71">
         <v>45017</v>
@@ -7155,8 +7287,8 @@
       <c r="L72">
         <v>45057</v>
       </c>
-      <c r="M72">
-        <v>45241</v>
+      <c r="M72" t="s">
+        <v>414</v>
       </c>
       <c r="N72">
         <v>44988</v>
@@ -7211,8 +7343,8 @@
       <c r="L73">
         <v>44896</v>
       </c>
-      <c r="M73">
-        <v>45078</v>
+      <c r="M73" t="s">
+        <v>415</v>
       </c>
       <c r="N73">
         <v>44812</v>
@@ -7267,8 +7399,8 @@
       <c r="L74">
         <v>44895</v>
       </c>
-      <c r="M74">
-        <v>45076</v>
+      <c r="M74" t="s">
+        <v>416</v>
       </c>
       <c r="N74">
         <v>44923</v>
@@ -7329,8 +7461,8 @@
       <c r="L75">
         <v>44917</v>
       </c>
-      <c r="M75">
-        <v>45099</v>
+      <c r="M75" t="s">
+        <v>417</v>
       </c>
       <c r="N75">
         <v>45275</v>
@@ -7394,8 +7526,8 @@
       <c r="L76">
         <v>45083</v>
       </c>
-      <c r="M76">
-        <v>45266</v>
+      <c r="M76" t="s">
+        <v>418</v>
       </c>
       <c r="N76">
         <v>45083</v>
@@ -7483,6 +7615,9 @@
       <c r="K77">
         <v>1058</v>
       </c>
+      <c r="M77" t="s">
+        <v>419</v>
+      </c>
       <c r="P77">
         <v>43429</v>
       </c>
@@ -7566,6 +7701,9 @@
       <c r="K78">
         <v>1335</v>
       </c>
+      <c r="M78" t="s">
+        <v>420</v>
+      </c>
       <c r="P78">
         <v>2025</v>
       </c>
@@ -7625,8 +7763,8 @@
       <c r="L79">
         <v>45097</v>
       </c>
-      <c r="M79">
-        <v>45280</v>
+      <c r="M79" t="s">
+        <v>421</v>
       </c>
       <c r="N79">
         <v>44793</v>
@@ -7690,6 +7828,9 @@
       <c r="K80">
         <v>1342</v>
       </c>
+      <c r="M80" t="s">
+        <v>422</v>
+      </c>
       <c r="P80">
         <v>2025</v>
       </c>
@@ -7746,8 +7887,8 @@
       <c r="L81">
         <v>45083</v>
       </c>
-      <c r="M81">
-        <v>45266</v>
+      <c r="M81" t="s">
+        <v>423</v>
       </c>
       <c r="N81">
         <v>45083</v>
@@ -7811,6 +7952,9 @@
       <c r="K82">
         <v>1280</v>
       </c>
+      <c r="M82" t="s">
+        <v>424</v>
+      </c>
       <c r="P82">
         <v>2004</v>
       </c>
@@ -7883,7 +8027,7 @@
         <v>46</v>
       </c>
       <c r="M83" t="s">
-        <v>46</v>
+        <v>425</v>
       </c>
       <c r="N83" t="s">
         <v>46</v>
@@ -8017,7 +8161,7 @@
         <v>46</v>
       </c>
       <c r="M84" t="s">
-        <v>46</v>
+        <v>426</v>
       </c>
       <c r="N84" t="s">
         <v>46</v>
@@ -8151,7 +8295,7 @@
         <v>46</v>
       </c>
       <c r="M85" t="s">
-        <v>46</v>
+        <v>427</v>
       </c>
       <c r="N85" t="s">
         <v>46</v>
@@ -8250,7 +8394,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AR1 A83:AR85 A3:L3 S3:AR3 A2:L2 S2:AR2 A4:L35 S4:AR35 A76:Q82 S36:AR82 Q2 Q3 Q4:Q35 A44:O75 Q36:Q75 N3:O3 N4:O35 A36:L43 N36:O43 N2:O2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AR1 A83:L85 A3:L3 S3:AR3 A2:L2 S2:AR2 A4:L35 S4:AR35 A76:L82 S36:AR82 Q2 Q3 Q4:Q35 A57:L75 Q36:Q75 N3:O3 N4:O35 A36:L43 N36:O43 N2:O2 A44:L44 N44:O44 A45:L56 N45:O56 N76:Q82 N57:O75 N83:AR85" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="279">
   <si>
     <t>SNO</t>
   </si>
@@ -545,285 +545,6 @@
     <t>05X 52W</t>
   </si>
   <si>
-    <t>05X 53N</t>
-  </si>
-  <si>
-    <t>05X 54L</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>SGB</t>
-  </si>
-  <si>
-    <t>AUTO</t>
-  </si>
-  <si>
-    <t>SGB FAULTY</t>
-  </si>
-  <si>
-    <t>WO/1/2</t>
-  </si>
-  <si>
-    <t>WKSP</t>
-  </si>
-  <si>
-    <t>UNDER REPAIR</t>
-  </si>
-  <si>
-    <t>05X 55E</t>
-  </si>
-  <si>
-    <t>15-03-22</t>
-  </si>
-  <si>
-    <t>15-03-24</t>
-  </si>
-  <si>
-    <t>05X 56Y</t>
-  </si>
-  <si>
-    <t>CLM</t>
-  </si>
-  <si>
-    <t>ARMT</t>
-  </si>
-  <si>
-    <t>CLM BENT</t>
-  </si>
-  <si>
-    <t>WO/1/3</t>
-  </si>
-  <si>
-    <t>05X 57W</t>
-  </si>
-  <si>
-    <t>05X 58N</t>
-  </si>
-  <si>
-    <t>05X 9490A</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>BOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under BOH </t>
-  </si>
-  <si>
-    <t>5 ABW</t>
-  </si>
-  <si>
-    <t>UNDER OH</t>
-  </si>
-  <si>
-    <t>05X 9491X</t>
-  </si>
-  <si>
-    <t>VOR</t>
-  </si>
-  <si>
-    <t>ENGINE</t>
-  </si>
-  <si>
-    <t>Auto</t>
-  </si>
-  <si>
-    <t>ENGINE FAULTY</t>
-  </si>
-  <si>
-    <t>05X29E</t>
-  </si>
-  <si>
-    <t>3M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BMP-II </t>
-  </si>
-  <si>
-    <t>IM</t>
-  </si>
-  <si>
-    <t>15X 1M</t>
-  </si>
-  <si>
-    <t>Cannon 30 MM Automatic Gun</t>
-  </si>
-  <si>
-    <t>Muzzle Brake: Metal Chipped out approx 9.56mm</t>
-  </si>
-  <si>
-    <t>11 FOD</t>
-  </si>
-  <si>
-    <t>TSS/EOA/014   dt 18 Dec 2022</t>
-  </si>
-  <si>
-    <t>223900534 dt 31 Dec 22</t>
-  </si>
-  <si>
-    <t>BMP-II</t>
-  </si>
-  <si>
-    <t>14X 2E</t>
-  </si>
-  <si>
-    <t>Breech lock</t>
-  </si>
-  <si>
-    <t>COD Jabalpur</t>
-  </si>
-  <si>
-    <t>TSS/EOA/0001   dt  21  Dec 2022</t>
-  </si>
-  <si>
-    <t>4503108264 dt 16 Jan 23</t>
-  </si>
-  <si>
-    <t>12X3X</t>
-  </si>
-  <si>
-    <t>Ser (Details)</t>
-  </si>
-  <si>
-    <t>13X 4Y</t>
-  </si>
-  <si>
-    <t>15X 5Y</t>
-  </si>
-  <si>
-    <t>17X 6K</t>
-  </si>
-  <si>
-    <t>RN 10 Voltage regulator</t>
-  </si>
-  <si>
-    <t>Elect</t>
-  </si>
-  <si>
-    <t>RN 10 Voltage regulator faulty</t>
-  </si>
-  <si>
-    <t>524/2/Tech/17/23   dt 18 Sep 23</t>
-  </si>
-  <si>
-    <t>101 CZW</t>
-  </si>
-  <si>
-    <t>Under repair at 101 CZW</t>
-  </si>
-  <si>
-    <t>17X 7L</t>
-  </si>
-  <si>
-    <t>13X8K</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>12X 9M</t>
-  </si>
-  <si>
-    <t>89X 10L</t>
-  </si>
-  <si>
-    <t>98X 11K</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>4ES</t>
-  </si>
-  <si>
-    <t>Tk T-72</t>
-  </si>
-  <si>
-    <t>02X 11K</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>Piston Extention Rod</t>
-  </si>
-  <si>
-    <t>Excess play in piston head</t>
-  </si>
-  <si>
-    <t>524/2/Tech/02 dt 10 May 2023</t>
-  </si>
-  <si>
-    <t>2 ABW</t>
-  </si>
-  <si>
-    <t>Approach COD Jabalpur for Factory Repair</t>
-  </si>
-  <si>
-    <t>08X22K</t>
-  </si>
-  <si>
-    <t>Gnr Sight BPK-2-42 with IR Search Light Tie Rod</t>
-  </si>
-  <si>
-    <t>Sight broken</t>
-  </si>
-  <si>
-    <t>524/2/Tech/01 dt 25 Apr 2023</t>
-  </si>
-  <si>
-    <t>Under repair at 9 ABW.</t>
-  </si>
-  <si>
-    <t>15X 33P</t>
-  </si>
-  <si>
-    <t>15X 44W</t>
-  </si>
-  <si>
-    <t>HQIB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tk T-72 </t>
-  </si>
-  <si>
-    <t>15X 55X</t>
-  </si>
-  <si>
-    <t>15X 66K</t>
-  </si>
-  <si>
-    <t>94X 77E</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>ds</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>dsdsdsds</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>asd</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>sda</t>
-  </si>
-  <si>
     <t>23-01-2024</t>
   </si>
   <si>
@@ -986,87 +707,6 @@
     <t>23-01-2077</t>
   </si>
   <si>
-    <t>23-01-2078</t>
-  </si>
-  <si>
-    <t>23-01-2079</t>
-  </si>
-  <si>
-    <t>23-01-2080</t>
-  </si>
-  <si>
-    <t>23-01-2081</t>
-  </si>
-  <si>
-    <t>23-01-2082</t>
-  </si>
-  <si>
-    <t>23-01-2083</t>
-  </si>
-  <si>
-    <t>23-01-2084</t>
-  </si>
-  <si>
-    <t>23-01-2085</t>
-  </si>
-  <si>
-    <t>23-01-2086</t>
-  </si>
-  <si>
-    <t>23-01-2087</t>
-  </si>
-  <si>
-    <t>23-01-2088</t>
-  </si>
-  <si>
-    <t>23-01-2089</t>
-  </si>
-  <si>
-    <t>23-01-2090</t>
-  </si>
-  <si>
-    <t>23-01-2091</t>
-  </si>
-  <si>
-    <t>23-01-2092</t>
-  </si>
-  <si>
-    <t>23-01-2093</t>
-  </si>
-  <si>
-    <t>23-01-2094</t>
-  </si>
-  <si>
-    <t>23-01-2095</t>
-  </si>
-  <si>
-    <t>23-01-2096</t>
-  </si>
-  <si>
-    <t>23-01-2097</t>
-  </si>
-  <si>
-    <t>23-01-2098</t>
-  </si>
-  <si>
-    <t>23-01-2099</t>
-  </si>
-  <si>
-    <t>23-01-2100</t>
-  </si>
-  <si>
-    <t>23-01-2101</t>
-  </si>
-  <si>
-    <t>23-01-2102</t>
-  </si>
-  <si>
-    <t>23-01-2103</t>
-  </si>
-  <si>
-    <t>23-01-2104</t>
-  </si>
-  <si>
     <t>23-10-2002</t>
   </si>
   <si>
@@ -1227,93 +867,6 @@
   </si>
   <si>
     <t>23-10-2055</t>
-  </si>
-  <si>
-    <t>23-10-2056</t>
-  </si>
-  <si>
-    <t>23-10-2057</t>
-  </si>
-  <si>
-    <t>23-10-2058</t>
-  </si>
-  <si>
-    <t>23-10-2059</t>
-  </si>
-  <si>
-    <t>23-10-2060</t>
-  </si>
-  <si>
-    <t>23-10-2061</t>
-  </si>
-  <si>
-    <t>23-10-2062</t>
-  </si>
-  <si>
-    <t>23-10-2063</t>
-  </si>
-  <si>
-    <t>23-10-2064</t>
-  </si>
-  <si>
-    <t>23-10-2065</t>
-  </si>
-  <si>
-    <t>23-10-2066</t>
-  </si>
-  <si>
-    <t>23-10-2067</t>
-  </si>
-  <si>
-    <t>23-10-2068</t>
-  </si>
-  <si>
-    <t>23-10-2069</t>
-  </si>
-  <si>
-    <t>23-10-2070</t>
-  </si>
-  <si>
-    <t>23-10-2071</t>
-  </si>
-  <si>
-    <t>23-10-2072</t>
-  </si>
-  <si>
-    <t>23-10-2073</t>
-  </si>
-  <si>
-    <t>23-10-2074</t>
-  </si>
-  <si>
-    <t>23-10-2075</t>
-  </si>
-  <si>
-    <t>23-10-2076</t>
-  </si>
-  <si>
-    <t>23-10-2077</t>
-  </si>
-  <si>
-    <t>23-10-2078</t>
-  </si>
-  <si>
-    <t>23-10-2079</t>
-  </si>
-  <si>
-    <t>23-10-2080</t>
-  </si>
-  <si>
-    <t>23-10-2081</t>
-  </si>
-  <si>
-    <t>23-10-2082</t>
-  </si>
-  <si>
-    <t>23-10-2083</t>
-  </si>
-  <si>
-    <t>23-10-2084</t>
   </si>
 </sst>
 </file>
@@ -1690,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR85"/>
+  <dimension ref="A1:AR55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AP55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1703,6 +1256,9 @@
     <col min="15" max="15" width="14.25" customWidth="1"/>
     <col min="16" max="16" width="13.375" customWidth="1"/>
     <col min="18" max="18" width="23.625" customWidth="1"/>
+    <col min="19" max="19" width="12.125" customWidth="1"/>
+    <col min="42" max="42" width="26.5" customWidth="1"/>
+    <col min="43" max="43" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
@@ -1877,34 +1433,34 @@
         <v>46</v>
       </c>
       <c r="M2" t="s">
-        <v>345</v>
+        <v>225</v>
       </c>
       <c r="N2" t="s">
         <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="P2" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="Q2" t="s">
         <v>46</v>
       </c>
       <c r="R2" t="s">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="T2" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="U2" t="s">
         <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="W2" t="s">
         <v>46</v>
@@ -1964,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="AP2" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
       <c r="AQ2" t="s">
         <v>46</v>
@@ -2008,19 +1564,28 @@
         <v>1360</v>
       </c>
       <c r="M3" t="s">
-        <v>345</v>
-      </c>
-      <c r="O3">
-        <v>45862</v>
+        <v>225</v>
+      </c>
+      <c r="O3" t="s">
+        <v>226</v>
       </c>
       <c r="P3" t="s">
-        <v>265</v>
+        <v>172</v>
       </c>
       <c r="Q3">
         <v>44807</v>
       </c>
       <c r="R3" t="s">
-        <v>265</v>
+        <v>172</v>
+      </c>
+      <c r="S3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T3" t="s">
+        <v>172</v>
+      </c>
+      <c r="V3" t="s">
+        <v>172</v>
       </c>
       <c r="X3" t="s">
         <v>52</v>
@@ -2054,6 +1619,9 @@
       </c>
       <c r="AO3" t="s">
         <v>59</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
@@ -2091,19 +1659,28 @@
         <v>1182</v>
       </c>
       <c r="M4" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4">
-        <v>45862</v>
+        <v>226</v>
+      </c>
+      <c r="O4" t="s">
+        <v>227</v>
       </c>
       <c r="P4" t="s">
-        <v>266</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>44807</v>
       </c>
       <c r="R4" t="s">
-        <v>266</v>
+        <v>173</v>
+      </c>
+      <c r="S4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T4" t="s">
+        <v>173</v>
+      </c>
+      <c r="V4" t="s">
+        <v>173</v>
       </c>
       <c r="X4" t="s">
         <v>52</v>
@@ -2137,6 +1714,9 @@
       </c>
       <c r="AO4" t="s">
         <v>59</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
@@ -2177,22 +1757,31 @@
         <v>44706</v>
       </c>
       <c r="M5" t="s">
-        <v>347</v>
+        <v>227</v>
       </c>
       <c r="N5">
         <v>44706</v>
       </c>
-      <c r="O5">
-        <v>45437</v>
+      <c r="O5" t="s">
+        <v>228</v>
       </c>
       <c r="P5" t="s">
-        <v>267</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>44806</v>
       </c>
       <c r="R5" t="s">
-        <v>267</v>
+        <v>174</v>
+      </c>
+      <c r="S5" t="s">
+        <v>174</v>
+      </c>
+      <c r="T5" t="s">
+        <v>174</v>
+      </c>
+      <c r="V5" t="s">
+        <v>174</v>
       </c>
       <c r="X5" t="s">
         <v>52</v>
@@ -2226,6 +1815,9 @@
       </c>
       <c r="AO5" t="s">
         <v>59</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
@@ -2266,22 +1858,31 @@
         <v>45019</v>
       </c>
       <c r="M6" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="N6">
         <v>44582</v>
       </c>
-      <c r="O6">
-        <v>45312</v>
+      <c r="O6" t="s">
+        <v>229</v>
       </c>
       <c r="P6" t="s">
-        <v>268</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>44979</v>
       </c>
       <c r="R6" t="s">
-        <v>268</v>
+        <v>175</v>
+      </c>
+      <c r="S6" t="s">
+        <v>175</v>
+      </c>
+      <c r="T6" t="s">
+        <v>175</v>
+      </c>
+      <c r="V6" t="s">
+        <v>175</v>
       </c>
       <c r="X6" t="s">
         <v>52</v>
@@ -2315,6 +1916,9 @@
       </c>
       <c r="AO6" t="s">
         <v>59</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
@@ -2352,19 +1956,28 @@
         <v>741</v>
       </c>
       <c r="M7" t="s">
-        <v>349</v>
-      </c>
-      <c r="O7">
-        <v>45310</v>
+        <v>229</v>
+      </c>
+      <c r="O7" t="s">
+        <v>230</v>
       </c>
       <c r="P7" t="s">
-        <v>269</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>43416</v>
       </c>
       <c r="R7" t="s">
-        <v>269</v>
+        <v>176</v>
+      </c>
+      <c r="S7" t="s">
+        <v>176</v>
+      </c>
+      <c r="T7" t="s">
+        <v>176</v>
+      </c>
+      <c r="V7" t="s">
+        <v>176</v>
       </c>
       <c r="X7" t="s">
         <v>52</v>
@@ -2395,6 +2008,9 @@
       </c>
       <c r="AO7" t="s">
         <v>59</v>
+      </c>
+      <c r="AP7" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
@@ -2435,22 +2051,31 @@
         <v>45222</v>
       </c>
       <c r="M8" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="N8">
         <v>45222</v>
       </c>
-      <c r="O8">
-        <v>45953</v>
+      <c r="O8" t="s">
+        <v>231</v>
       </c>
       <c r="P8" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>44807</v>
       </c>
       <c r="R8" t="s">
-        <v>270</v>
+        <v>177</v>
+      </c>
+      <c r="S8" t="s">
+        <v>177</v>
+      </c>
+      <c r="T8" t="s">
+        <v>177</v>
+      </c>
+      <c r="V8" t="s">
+        <v>177</v>
       </c>
       <c r="X8" t="s">
         <v>78</v>
@@ -2466,6 +2091,9 @@
       </c>
       <c r="AO8" t="s">
         <v>59</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
@@ -2506,22 +2134,31 @@
         <v>45154</v>
       </c>
       <c r="M9" t="s">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="N9">
         <v>45154</v>
       </c>
-      <c r="O9">
-        <v>45885</v>
+      <c r="O9" t="s">
+        <v>232</v>
       </c>
       <c r="P9" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>44804</v>
       </c>
       <c r="R9" t="s">
-        <v>271</v>
+        <v>178</v>
+      </c>
+      <c r="S9" t="s">
+        <v>178</v>
+      </c>
+      <c r="T9" t="s">
+        <v>178</v>
+      </c>
+      <c r="V9" t="s">
+        <v>178</v>
       </c>
       <c r="X9" t="s">
         <v>78</v>
@@ -2537,6 +2174,9 @@
       </c>
       <c r="AO9" t="s">
         <v>59</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
@@ -2577,22 +2217,31 @@
         <v>45093</v>
       </c>
       <c r="M10" t="s">
-        <v>352</v>
+        <v>232</v>
       </c>
       <c r="N10">
         <v>44776</v>
       </c>
-      <c r="O10">
-        <v>45507</v>
+      <c r="O10" t="s">
+        <v>233</v>
       </c>
       <c r="P10" t="s">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>44979</v>
       </c>
       <c r="R10" t="s">
-        <v>272</v>
+        <v>179</v>
+      </c>
+      <c r="S10" t="s">
+        <v>179</v>
+      </c>
+      <c r="T10" t="s">
+        <v>179</v>
+      </c>
+      <c r="V10" t="s">
+        <v>179</v>
       </c>
       <c r="X10" t="s">
         <v>78</v>
@@ -2608,6 +2257,9 @@
       </c>
       <c r="AO10" t="s">
         <v>59</v>
+      </c>
+      <c r="AP10" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
@@ -2645,19 +2297,28 @@
         <v>1054</v>
       </c>
       <c r="M11" t="s">
-        <v>353</v>
-      </c>
-      <c r="O11">
-        <v>45337</v>
+        <v>233</v>
+      </c>
+      <c r="O11" t="s">
+        <v>234</v>
       </c>
       <c r="P11" t="s">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="Q11">
         <v>44915</v>
       </c>
       <c r="R11" t="s">
-        <v>273</v>
+        <v>180</v>
+      </c>
+      <c r="S11" t="s">
+        <v>180</v>
+      </c>
+      <c r="T11" t="s">
+        <v>180</v>
+      </c>
+      <c r="V11" t="s">
+        <v>180</v>
       </c>
       <c r="X11" t="s">
         <v>78</v>
@@ -2694,6 +2355,9 @@
       </c>
       <c r="AO11" t="s">
         <v>59</v>
+      </c>
+      <c r="AP11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
@@ -2731,19 +2395,28 @@
         <v>1141</v>
       </c>
       <c r="M12" t="s">
-        <v>354</v>
-      </c>
-      <c r="O12">
-        <v>45734</v>
+        <v>234</v>
+      </c>
+      <c r="O12" t="s">
+        <v>235</v>
       </c>
       <c r="P12" t="s">
-        <v>274</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>43810</v>
       </c>
       <c r="R12" t="s">
-        <v>274</v>
+        <v>181</v>
+      </c>
+      <c r="S12" t="s">
+        <v>181</v>
+      </c>
+      <c r="T12" t="s">
+        <v>181</v>
+      </c>
+      <c r="V12" t="s">
+        <v>181</v>
       </c>
       <c r="X12" t="s">
         <v>78</v>
@@ -2759,6 +2432,9 @@
       </c>
       <c r="AO12" t="s">
         <v>59</v>
+      </c>
+      <c r="AP12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
@@ -2796,19 +2472,28 @@
         <v>600</v>
       </c>
       <c r="M13" t="s">
-        <v>355</v>
-      </c>
-      <c r="O13">
-        <v>45587</v>
+        <v>235</v>
+      </c>
+      <c r="O13" t="s">
+        <v>236</v>
       </c>
       <c r="P13" t="s">
-        <v>275</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>43810</v>
       </c>
       <c r="R13" t="s">
-        <v>275</v>
+        <v>182</v>
+      </c>
+      <c r="S13" t="s">
+        <v>182</v>
+      </c>
+      <c r="T13" t="s">
+        <v>182</v>
+      </c>
+      <c r="V13" t="s">
+        <v>182</v>
       </c>
       <c r="X13" t="s">
         <v>78</v>
@@ -2824,6 +2509,9 @@
       </c>
       <c r="AO13" t="s">
         <v>59</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
@@ -2861,19 +2549,28 @@
         <v>188</v>
       </c>
       <c r="M14" t="s">
-        <v>356</v>
-      </c>
-      <c r="O14">
-        <v>45937</v>
+        <v>236</v>
+      </c>
+      <c r="O14" t="s">
+        <v>237</v>
       </c>
       <c r="P14" t="s">
-        <v>276</v>
+        <v>183</v>
       </c>
       <c r="Q14" t="s">
         <v>89</v>
       </c>
       <c r="R14" t="s">
-        <v>276</v>
+        <v>183</v>
+      </c>
+      <c r="S14" t="s">
+        <v>183</v>
+      </c>
+      <c r="T14" t="s">
+        <v>183</v>
+      </c>
+      <c r="V14" t="s">
+        <v>183</v>
       </c>
       <c r="X14" t="s">
         <v>78</v>
@@ -2910,6 +2607,9 @@
       </c>
       <c r="AO14" t="s">
         <v>59</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
@@ -2950,22 +2650,31 @@
         <v>45080</v>
       </c>
       <c r="M15" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="N15">
         <v>44686</v>
       </c>
-      <c r="O15">
-        <v>45417</v>
+      <c r="O15" t="s">
+        <v>238</v>
       </c>
       <c r="P15" t="s">
-        <v>277</v>
+        <v>184</v>
       </c>
       <c r="Q15" t="s">
         <v>89</v>
       </c>
       <c r="R15" t="s">
-        <v>277</v>
+        <v>184</v>
+      </c>
+      <c r="S15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" t="s">
+        <v>184</v>
+      </c>
+      <c r="V15" t="s">
+        <v>184</v>
       </c>
       <c r="X15" t="s">
         <v>78</v>
@@ -2981,6 +2690,9 @@
       </c>
       <c r="AO15" t="s">
         <v>59</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
@@ -3021,22 +2733,31 @@
         <v>45087</v>
       </c>
       <c r="M16" t="s">
-        <v>358</v>
+        <v>238</v>
       </c>
       <c r="N16">
         <v>45202</v>
       </c>
-      <c r="O16">
-        <v>45933</v>
+      <c r="O16" t="s">
+        <v>239</v>
       </c>
       <c r="P16" t="s">
-        <v>278</v>
+        <v>185</v>
       </c>
       <c r="Q16" t="s">
         <v>89</v>
       </c>
       <c r="R16" t="s">
-        <v>278</v>
+        <v>185</v>
+      </c>
+      <c r="S16" t="s">
+        <v>185</v>
+      </c>
+      <c r="T16" t="s">
+        <v>185</v>
+      </c>
+      <c r="V16" t="s">
+        <v>185</v>
       </c>
       <c r="X16" t="s">
         <v>78</v>
@@ -3053,8 +2774,11 @@
       <c r="AO16" t="s">
         <v>59</v>
       </c>
+      <c r="AP16" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -3092,22 +2816,31 @@
         <v>45033</v>
       </c>
       <c r="M17" t="s">
-        <v>359</v>
+        <v>239</v>
       </c>
       <c r="N17">
         <v>45033</v>
       </c>
-      <c r="O17">
-        <v>45764</v>
+      <c r="O17" t="s">
+        <v>240</v>
       </c>
       <c r="P17" t="s">
-        <v>279</v>
+        <v>186</v>
       </c>
       <c r="Q17" t="s">
         <v>89</v>
       </c>
       <c r="R17" t="s">
-        <v>279</v>
+        <v>186</v>
+      </c>
+      <c r="S17" t="s">
+        <v>186</v>
+      </c>
+      <c r="T17" t="s">
+        <v>186</v>
+      </c>
+      <c r="V17" t="s">
+        <v>186</v>
       </c>
       <c r="X17" t="s">
         <v>78</v>
@@ -3124,8 +2857,11 @@
       <c r="AO17" t="s">
         <v>59</v>
       </c>
+      <c r="AP17" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3160,19 +2896,28 @@
         <v>906</v>
       </c>
       <c r="M18" t="s">
-        <v>360</v>
-      </c>
-      <c r="O18">
-        <v>45737</v>
+        <v>240</v>
+      </c>
+      <c r="O18" t="s">
+        <v>241</v>
       </c>
       <c r="P18" t="s">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="Q18" t="s">
         <v>89</v>
       </c>
       <c r="R18" t="s">
-        <v>280</v>
+        <v>187</v>
+      </c>
+      <c r="S18" t="s">
+        <v>187</v>
+      </c>
+      <c r="T18" t="s">
+        <v>187</v>
+      </c>
+      <c r="V18" t="s">
+        <v>187</v>
       </c>
       <c r="X18" t="s">
         <v>78</v>
@@ -3189,8 +2934,11 @@
       <c r="AO18" t="s">
         <v>59</v>
       </c>
+      <c r="AP18" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -3228,22 +2976,31 @@
         <v>45087</v>
       </c>
       <c r="M19" t="s">
-        <v>361</v>
+        <v>241</v>
       </c>
       <c r="N19">
         <v>45005</v>
       </c>
-      <c r="O19">
-        <v>45736</v>
+      <c r="O19" t="s">
+        <v>242</v>
       </c>
       <c r="P19" t="s">
-        <v>281</v>
+        <v>188</v>
       </c>
       <c r="Q19" t="s">
         <v>89</v>
       </c>
       <c r="R19" t="s">
-        <v>281</v>
+        <v>188</v>
+      </c>
+      <c r="S19" t="s">
+        <v>188</v>
+      </c>
+      <c r="T19" t="s">
+        <v>188</v>
+      </c>
+      <c r="V19" t="s">
+        <v>188</v>
       </c>
       <c r="X19" t="s">
         <v>78</v>
@@ -3260,8 +3017,11 @@
       <c r="AO19" t="s">
         <v>59</v>
       </c>
+      <c r="AP19" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -3299,22 +3059,31 @@
         <v>45017</v>
       </c>
       <c r="M20" t="s">
-        <v>362</v>
+        <v>242</v>
       </c>
       <c r="N20">
         <v>44608</v>
       </c>
-      <c r="O20">
-        <v>45338</v>
+      <c r="O20" t="s">
+        <v>243</v>
       </c>
       <c r="P20" t="s">
-        <v>282</v>
+        <v>189</v>
       </c>
       <c r="Q20" t="s">
         <v>89</v>
       </c>
       <c r="R20" t="s">
-        <v>282</v>
+        <v>189</v>
+      </c>
+      <c r="S20" t="s">
+        <v>189</v>
+      </c>
+      <c r="T20" t="s">
+        <v>189</v>
+      </c>
+      <c r="V20" t="s">
+        <v>189</v>
       </c>
       <c r="X20" t="s">
         <v>78</v>
@@ -3331,8 +3100,11 @@
       <c r="AO20" t="s">
         <v>59</v>
       </c>
+      <c r="AP20" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -3370,22 +3142,31 @@
         <v>45147</v>
       </c>
       <c r="M21" t="s">
-        <v>363</v>
+        <v>243</v>
       </c>
       <c r="N21">
         <v>44823</v>
       </c>
-      <c r="O21">
-        <v>45547</v>
+      <c r="O21" t="s">
+        <v>244</v>
       </c>
       <c r="P21" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="Q21" t="s">
         <v>89</v>
       </c>
       <c r="R21" t="s">
-        <v>283</v>
+        <v>190</v>
+      </c>
+      <c r="S21" t="s">
+        <v>190</v>
+      </c>
+      <c r="T21" t="s">
+        <v>190</v>
+      </c>
+      <c r="V21" t="s">
+        <v>190</v>
       </c>
       <c r="X21" t="s">
         <v>78</v>
@@ -3402,8 +3183,11 @@
       <c r="AO21" t="s">
         <v>59</v>
       </c>
+      <c r="AP21" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -3438,19 +3222,28 @@
         <v>1275</v>
       </c>
       <c r="M22" t="s">
-        <v>364</v>
-      </c>
-      <c r="O22">
-        <v>45310</v>
+        <v>244</v>
+      </c>
+      <c r="O22" t="s">
+        <v>245</v>
       </c>
       <c r="P22" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>44923</v>
       </c>
       <c r="R22" t="s">
-        <v>284</v>
+        <v>191</v>
+      </c>
+      <c r="S22" t="s">
+        <v>191</v>
+      </c>
+      <c r="T22" t="s">
+        <v>191</v>
+      </c>
+      <c r="V22" t="s">
+        <v>191</v>
       </c>
       <c r="X22" t="s">
         <v>78</v>
@@ -3467,8 +3260,11 @@
       <c r="AO22" t="s">
         <v>59</v>
       </c>
+      <c r="AP22" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -3503,19 +3299,28 @@
         <v>1057</v>
       </c>
       <c r="M23" t="s">
-        <v>365</v>
-      </c>
-      <c r="O23">
-        <v>45329</v>
+        <v>245</v>
+      </c>
+      <c r="O23" t="s">
+        <v>246</v>
       </c>
       <c r="P23" t="s">
-        <v>285</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>45000</v>
       </c>
       <c r="R23" t="s">
-        <v>285</v>
+        <v>192</v>
+      </c>
+      <c r="S23" t="s">
+        <v>192</v>
+      </c>
+      <c r="T23" t="s">
+        <v>192</v>
+      </c>
+      <c r="V23" t="s">
+        <v>192</v>
       </c>
       <c r="X23" t="s">
         <v>52</v>
@@ -3550,8 +3355,11 @@
       <c r="AO23" t="s">
         <v>59</v>
       </c>
+      <c r="AP23" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -3589,22 +3397,31 @@
         <v>107</v>
       </c>
       <c r="M24" t="s">
-        <v>366</v>
+        <v>246</v>
       </c>
       <c r="N24">
         <v>45143</v>
       </c>
-      <c r="O24">
-        <v>45874</v>
+      <c r="O24" t="s">
+        <v>247</v>
       </c>
       <c r="P24" t="s">
-        <v>286</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>43878</v>
       </c>
       <c r="R24" t="s">
-        <v>286</v>
+        <v>193</v>
+      </c>
+      <c r="S24" t="s">
+        <v>193</v>
+      </c>
+      <c r="T24" t="s">
+        <v>193</v>
+      </c>
+      <c r="V24" t="s">
+        <v>193</v>
       </c>
       <c r="X24" t="s">
         <v>52</v>
@@ -3639,8 +3456,11 @@
       <c r="AO24" t="s">
         <v>59</v>
       </c>
+      <c r="AP24" t="s">
+        <v>193</v>
+      </c>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -3678,22 +3498,31 @@
         <v>45203</v>
       </c>
       <c r="M25" t="s">
-        <v>367</v>
+        <v>247</v>
       </c>
       <c r="N25">
         <v>45149</v>
       </c>
-      <c r="O25">
-        <v>45880</v>
+      <c r="O25" t="s">
+        <v>248</v>
       </c>
       <c r="P25" t="s">
-        <v>287</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>44923</v>
       </c>
       <c r="R25" t="s">
-        <v>287</v>
+        <v>194</v>
+      </c>
+      <c r="S25" t="s">
+        <v>194</v>
+      </c>
+      <c r="T25" t="s">
+        <v>194</v>
+      </c>
+      <c r="V25" t="s">
+        <v>194</v>
       </c>
       <c r="X25" t="s">
         <v>52</v>
@@ -3728,8 +3557,11 @@
       <c r="AO25" t="s">
         <v>59</v>
       </c>
+      <c r="AP25" t="s">
+        <v>194</v>
+      </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3764,19 +3596,28 @@
         <v>1109</v>
       </c>
       <c r="M26" t="s">
-        <v>368</v>
-      </c>
-      <c r="O26">
-        <v>45919</v>
+        <v>248</v>
+      </c>
+      <c r="O26" t="s">
+        <v>249</v>
       </c>
       <c r="P26" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>45007</v>
       </c>
       <c r="R26" t="s">
-        <v>288</v>
+        <v>195</v>
+      </c>
+      <c r="S26" t="s">
+        <v>195</v>
+      </c>
+      <c r="T26" t="s">
+        <v>195</v>
+      </c>
+      <c r="V26" t="s">
+        <v>195</v>
       </c>
       <c r="X26" t="s">
         <v>52</v>
@@ -3811,8 +3652,11 @@
       <c r="AO26" t="s">
         <v>59</v>
       </c>
+      <c r="AP26" t="s">
+        <v>195</v>
+      </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -3850,22 +3694,31 @@
         <v>45227</v>
       </c>
       <c r="M27" t="s">
-        <v>369</v>
+        <v>249</v>
       </c>
       <c r="N27">
         <v>45284</v>
       </c>
-      <c r="O27">
-        <v>46015</v>
+      <c r="O27" t="s">
+        <v>250</v>
       </c>
       <c r="P27" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="Q27">
         <v>45119</v>
       </c>
       <c r="R27" t="s">
-        <v>289</v>
+        <v>196</v>
+      </c>
+      <c r="S27" t="s">
+        <v>196</v>
+      </c>
+      <c r="T27" t="s">
+        <v>196</v>
+      </c>
+      <c r="V27" t="s">
+        <v>196</v>
       </c>
       <c r="X27" t="s">
         <v>52</v>
@@ -3900,8 +3753,11 @@
       <c r="AO27" t="s">
         <v>59</v>
       </c>
+      <c r="AP27" t="s">
+        <v>196</v>
+      </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -3939,22 +3795,31 @@
         <v>45615</v>
       </c>
       <c r="M28" t="s">
-        <v>370</v>
+        <v>250</v>
       </c>
       <c r="N28">
         <v>45126</v>
       </c>
-      <c r="O28">
-        <v>45857</v>
+      <c r="O28" t="s">
+        <v>251</v>
       </c>
       <c r="P28" t="s">
-        <v>290</v>
+        <v>197</v>
       </c>
       <c r="Q28">
         <v>45119</v>
       </c>
       <c r="R28" t="s">
-        <v>290</v>
+        <v>197</v>
+      </c>
+      <c r="S28" t="s">
+        <v>197</v>
+      </c>
+      <c r="T28" t="s">
+        <v>197</v>
+      </c>
+      <c r="V28" t="s">
+        <v>197</v>
       </c>
       <c r="X28" t="s">
         <v>52</v>
@@ -3989,8 +3854,11 @@
       <c r="AO28" t="s">
         <v>59</v>
       </c>
+      <c r="AP28" t="s">
+        <v>197</v>
+      </c>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -4028,22 +3896,31 @@
         <v>45177</v>
       </c>
       <c r="M29" t="s">
-        <v>371</v>
+        <v>251</v>
       </c>
       <c r="N29">
         <v>45177</v>
       </c>
-      <c r="O29">
-        <v>45908</v>
+      <c r="O29" t="s">
+        <v>252</v>
       </c>
       <c r="P29" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="Q29" t="s">
         <v>89</v>
       </c>
       <c r="R29" t="s">
-        <v>291</v>
+        <v>198</v>
+      </c>
+      <c r="S29" t="s">
+        <v>198</v>
+      </c>
+      <c r="T29" t="s">
+        <v>198</v>
+      </c>
+      <c r="V29" t="s">
+        <v>198</v>
       </c>
       <c r="X29" t="s">
         <v>52</v>
@@ -4078,8 +3955,11 @@
       <c r="AO29" t="s">
         <v>59</v>
       </c>
+      <c r="AP29" t="s">
+        <v>198</v>
+      </c>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -4117,22 +3997,31 @@
         <v>45019</v>
       </c>
       <c r="M30" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="N30">
         <v>45288</v>
       </c>
-      <c r="O30">
-        <v>46019</v>
+      <c r="O30" t="s">
+        <v>253</v>
       </c>
       <c r="P30" t="s">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>43480</v>
       </c>
       <c r="R30" t="s">
-        <v>292</v>
+        <v>199</v>
+      </c>
+      <c r="S30" t="s">
+        <v>199</v>
+      </c>
+      <c r="T30" t="s">
+        <v>199</v>
+      </c>
+      <c r="V30" t="s">
+        <v>199</v>
       </c>
       <c r="X30" t="s">
         <v>131</v>
@@ -4149,8 +4038,11 @@
       <c r="AO30" t="s">
         <v>59</v>
       </c>
+      <c r="AP30" t="s">
+        <v>199</v>
+      </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -4185,19 +4077,28 @@
         <v>1315</v>
       </c>
       <c r="M31" t="s">
-        <v>373</v>
-      </c>
-      <c r="O31">
-        <v>45299</v>
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>254</v>
       </c>
       <c r="P31" t="s">
-        <v>293</v>
+        <v>200</v>
       </c>
       <c r="Q31" t="s">
         <v>89</v>
       </c>
       <c r="R31" t="s">
-        <v>293</v>
+        <v>200</v>
+      </c>
+      <c r="S31" t="s">
+        <v>200</v>
+      </c>
+      <c r="T31" t="s">
+        <v>200</v>
+      </c>
+      <c r="V31" t="s">
+        <v>200</v>
       </c>
       <c r="X31" t="s">
         <v>131</v>
@@ -4214,8 +4115,11 @@
       <c r="AO31" t="s">
         <v>59</v>
       </c>
+      <c r="AP31" t="s">
+        <v>200</v>
+      </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -4250,19 +4154,28 @@
         <v>1333</v>
       </c>
       <c r="M32" t="s">
-        <v>374</v>
-      </c>
-      <c r="O32">
-        <v>45734</v>
+        <v>254</v>
+      </c>
+      <c r="O32" t="s">
+        <v>255</v>
       </c>
       <c r="P32" t="s">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>44191</v>
       </c>
       <c r="R32" t="s">
-        <v>294</v>
+        <v>201</v>
+      </c>
+      <c r="S32" t="s">
+        <v>201</v>
+      </c>
+      <c r="T32" t="s">
+        <v>201</v>
+      </c>
+      <c r="V32" t="s">
+        <v>201</v>
       </c>
       <c r="X32" t="s">
         <v>131</v>
@@ -4300,8 +4213,11 @@
       <c r="AO32" t="s">
         <v>59</v>
       </c>
+      <c r="AP32" t="s">
+        <v>201</v>
+      </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -4339,22 +4255,31 @@
         <v>44999</v>
       </c>
       <c r="M33" t="s">
-        <v>375</v>
+        <v>255</v>
       </c>
       <c r="N33">
         <v>44862</v>
       </c>
-      <c r="O33">
-        <v>45593</v>
+      <c r="O33" t="s">
+        <v>256</v>
       </c>
       <c r="P33" t="s">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="Q33" t="s">
         <v>89</v>
       </c>
       <c r="R33" t="s">
-        <v>295</v>
+        <v>202</v>
+      </c>
+      <c r="S33" t="s">
+        <v>202</v>
+      </c>
+      <c r="T33" t="s">
+        <v>202</v>
+      </c>
+      <c r="V33" t="s">
+        <v>202</v>
       </c>
       <c r="X33" t="s">
         <v>131</v>
@@ -4392,8 +4317,11 @@
       <c r="AO33" t="s">
         <v>59</v>
       </c>
+      <c r="AP33" t="s">
+        <v>202</v>
+      </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -4431,22 +4359,31 @@
         <v>45248</v>
       </c>
       <c r="M34" t="s">
-        <v>376</v>
+        <v>256</v>
       </c>
       <c r="N34">
         <v>45232</v>
       </c>
-      <c r="O34">
-        <v>45598</v>
+      <c r="O34" t="s">
+        <v>257</v>
       </c>
       <c r="P34" t="s">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="Q34" t="s">
         <v>89</v>
       </c>
       <c r="R34" t="s">
-        <v>296</v>
+        <v>203</v>
+      </c>
+      <c r="S34" t="s">
+        <v>203</v>
+      </c>
+      <c r="T34" t="s">
+        <v>203</v>
+      </c>
+      <c r="V34" t="s">
+        <v>203</v>
       </c>
       <c r="X34" t="s">
         <v>131</v>
@@ -4463,8 +4400,11 @@
       <c r="AO34" t="s">
         <v>59</v>
       </c>
+      <c r="AP34" t="s">
+        <v>203</v>
+      </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -4502,22 +4442,31 @@
         <v>45203</v>
       </c>
       <c r="M35" t="s">
-        <v>377</v>
+        <v>257</v>
       </c>
       <c r="N35">
         <v>44621</v>
       </c>
-      <c r="O35">
-        <v>45352</v>
+      <c r="O35" t="s">
+        <v>258</v>
       </c>
       <c r="P35" t="s">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="Q35" t="s">
         <v>89</v>
       </c>
       <c r="R35" t="s">
-        <v>297</v>
+        <v>204</v>
+      </c>
+      <c r="S35" t="s">
+        <v>204</v>
+      </c>
+      <c r="T35" t="s">
+        <v>204</v>
+      </c>
+      <c r="V35" t="s">
+        <v>204</v>
       </c>
       <c r="X35" t="s">
         <v>131</v>
@@ -4534,8 +4483,11 @@
       <c r="AO35" t="s">
         <v>59</v>
       </c>
+      <c r="AP35" t="s">
+        <v>204</v>
+      </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -4573,22 +4525,31 @@
         <v>45238</v>
       </c>
       <c r="M36" t="s">
-        <v>378</v>
+        <v>258</v>
       </c>
       <c r="N36">
         <v>45238</v>
       </c>
-      <c r="O36">
-        <v>45969</v>
+      <c r="O36" t="s">
+        <v>259</v>
       </c>
       <c r="P36" t="s">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="Q36" t="s">
         <v>89</v>
       </c>
       <c r="R36" t="s">
-        <v>298</v>
+        <v>205</v>
+      </c>
+      <c r="S36" t="s">
+        <v>205</v>
+      </c>
+      <c r="T36" t="s">
+        <v>205</v>
+      </c>
+      <c r="V36" t="s">
+        <v>205</v>
       </c>
       <c r="X36" t="s">
         <v>131</v>
@@ -4605,8 +4566,11 @@
       <c r="AO36" t="s">
         <v>59</v>
       </c>
+      <c r="AP36" t="s">
+        <v>205</v>
+      </c>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -4644,22 +4608,31 @@
         <v>45034</v>
       </c>
       <c r="M37" t="s">
-        <v>379</v>
+        <v>259</v>
       </c>
       <c r="N37">
         <v>45034</v>
       </c>
-      <c r="O37">
-        <v>45765</v>
+      <c r="O37" t="s">
+        <v>260</v>
       </c>
       <c r="P37" t="s">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="Q37" t="s">
         <v>89</v>
       </c>
       <c r="R37" t="s">
-        <v>299</v>
+        <v>206</v>
+      </c>
+      <c r="S37" t="s">
+        <v>206</v>
+      </c>
+      <c r="T37" t="s">
+        <v>206</v>
+      </c>
+      <c r="V37" t="s">
+        <v>206</v>
       </c>
       <c r="X37" t="s">
         <v>131</v>
@@ -4676,8 +4649,11 @@
       <c r="AO37" t="s">
         <v>59</v>
       </c>
+      <c r="AP37" t="s">
+        <v>206</v>
+      </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -4715,22 +4691,31 @@
         <v>45223</v>
       </c>
       <c r="M38" t="s">
-        <v>380</v>
+        <v>260</v>
       </c>
       <c r="N38">
         <v>45255</v>
       </c>
-      <c r="O38">
-        <v>45986</v>
+      <c r="O38" t="s">
+        <v>261</v>
       </c>
       <c r="P38" t="s">
-        <v>300</v>
+        <v>207</v>
       </c>
       <c r="Q38" t="s">
         <v>89</v>
       </c>
       <c r="R38" t="s">
-        <v>300</v>
+        <v>207</v>
+      </c>
+      <c r="S38" t="s">
+        <v>207</v>
+      </c>
+      <c r="T38" t="s">
+        <v>207</v>
+      </c>
+      <c r="V38" t="s">
+        <v>207</v>
       </c>
       <c r="X38" t="s">
         <v>131</v>
@@ -4747,8 +4732,11 @@
       <c r="AO38" t="s">
         <v>59</v>
       </c>
+      <c r="AP38" t="s">
+        <v>207</v>
+      </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -4786,22 +4774,31 @@
         <v>45248</v>
       </c>
       <c r="M39" t="s">
-        <v>381</v>
+        <v>261</v>
       </c>
       <c r="N39">
         <v>45248</v>
       </c>
-      <c r="O39">
-        <v>45979</v>
+      <c r="O39" t="s">
+        <v>262</v>
       </c>
       <c r="P39" t="s">
-        <v>301</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>44091</v>
       </c>
       <c r="R39" t="s">
-        <v>301</v>
+        <v>208</v>
+      </c>
+      <c r="S39" t="s">
+        <v>208</v>
+      </c>
+      <c r="T39" t="s">
+        <v>208</v>
+      </c>
+      <c r="V39" t="s">
+        <v>208</v>
       </c>
       <c r="X39" t="s">
         <v>131</v>
@@ -4818,8 +4815,11 @@
       <c r="AO39" t="s">
         <v>59</v>
       </c>
+      <c r="AP39" t="s">
+        <v>208</v>
+      </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -4854,19 +4854,28 @@
         <v>1326</v>
       </c>
       <c r="M40" t="s">
-        <v>382</v>
-      </c>
-      <c r="O40">
-        <v>45619</v>
+        <v>262</v>
+      </c>
+      <c r="O40" t="s">
+        <v>263</v>
       </c>
       <c r="P40" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="Q40" t="s">
         <v>89</v>
       </c>
       <c r="R40" t="s">
-        <v>302</v>
+        <v>209</v>
+      </c>
+      <c r="S40" t="s">
+        <v>209</v>
+      </c>
+      <c r="T40" t="s">
+        <v>209</v>
+      </c>
+      <c r="V40" t="s">
+        <v>209</v>
       </c>
       <c r="X40" t="s">
         <v>131</v>
@@ -4883,8 +4892,11 @@
       <c r="AO40" t="s">
         <v>59</v>
       </c>
+      <c r="AP40" t="s">
+        <v>209</v>
+      </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -4922,22 +4934,31 @@
         <v>45203</v>
       </c>
       <c r="M41" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="N41">
         <v>44963</v>
       </c>
-      <c r="O41">
-        <v>45694</v>
+      <c r="O41" t="s">
+        <v>264</v>
       </c>
       <c r="P41" t="s">
-        <v>303</v>
+        <v>210</v>
       </c>
       <c r="Q41" t="s">
         <v>89</v>
       </c>
       <c r="R41" t="s">
-        <v>303</v>
+        <v>210</v>
+      </c>
+      <c r="S41" t="s">
+        <v>210</v>
+      </c>
+      <c r="T41" t="s">
+        <v>210</v>
+      </c>
+      <c r="V41" t="s">
+        <v>210</v>
       </c>
       <c r="X41" t="s">
         <v>131</v>
@@ -4954,8 +4975,11 @@
       <c r="AO41" t="s">
         <v>59</v>
       </c>
+      <c r="AP41" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -4993,22 +5017,31 @@
         <v>45021</v>
       </c>
       <c r="M42" t="s">
-        <v>384</v>
+        <v>264</v>
       </c>
       <c r="N42">
         <v>45021</v>
       </c>
-      <c r="O42">
-        <v>45752</v>
+      <c r="O42" t="s">
+        <v>265</v>
       </c>
       <c r="P42" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="Q42" t="s">
         <v>89</v>
       </c>
       <c r="R42" t="s">
-        <v>304</v>
+        <v>211</v>
+      </c>
+      <c r="S42" t="s">
+        <v>211</v>
+      </c>
+      <c r="T42" t="s">
+        <v>211</v>
+      </c>
+      <c r="V42" t="s">
+        <v>211</v>
       </c>
       <c r="X42" t="s">
         <v>131</v>
@@ -5025,8 +5058,11 @@
       <c r="AO42" t="s">
         <v>59</v>
       </c>
+      <c r="AP42" t="s">
+        <v>211</v>
+      </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -5064,22 +5100,31 @@
         <v>44950</v>
       </c>
       <c r="M43" t="s">
-        <v>385</v>
+        <v>265</v>
       </c>
       <c r="N43">
         <v>44950</v>
       </c>
-      <c r="O43">
-        <v>45681</v>
+      <c r="O43" t="s">
+        <v>266</v>
       </c>
       <c r="P43" t="s">
-        <v>305</v>
+        <v>212</v>
       </c>
       <c r="Q43" t="s">
         <v>89</v>
       </c>
       <c r="R43" t="s">
-        <v>305</v>
+        <v>212</v>
+      </c>
+      <c r="S43" t="s">
+        <v>212</v>
+      </c>
+      <c r="T43" t="s">
+        <v>212</v>
+      </c>
+      <c r="V43" t="s">
+        <v>212</v>
       </c>
       <c r="X43" t="s">
         <v>131</v>
@@ -5096,8 +5141,11 @@
       <c r="AO43" t="s">
         <v>59</v>
       </c>
+      <c r="AP43" t="s">
+        <v>212</v>
+      </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -5132,16 +5180,28 @@
         <v>1297</v>
       </c>
       <c r="M44" t="s">
-        <v>386</v>
+        <v>266</v>
+      </c>
+      <c r="O44" t="s">
+        <v>267</v>
       </c>
       <c r="P44" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="Q44" t="s">
         <v>89</v>
       </c>
       <c r="R44" t="s">
-        <v>306</v>
+        <v>213</v>
+      </c>
+      <c r="S44" t="s">
+        <v>213</v>
+      </c>
+      <c r="T44" t="s">
+        <v>213</v>
+      </c>
+      <c r="V44" t="s">
+        <v>213</v>
       </c>
       <c r="X44" t="s">
         <v>131</v>
@@ -5158,8 +5218,11 @@
       <c r="AO44" t="s">
         <v>59</v>
       </c>
+      <c r="AP44" t="s">
+        <v>213</v>
+      </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -5197,22 +5260,31 @@
         <v>44445</v>
       </c>
       <c r="M45" t="s">
-        <v>387</v>
+        <v>267</v>
       </c>
       <c r="N45">
         <v>44445</v>
       </c>
-      <c r="O45">
-        <v>45175</v>
+      <c r="O45" t="s">
+        <v>268</v>
       </c>
       <c r="P45" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>44149</v>
       </c>
       <c r="R45" t="s">
-        <v>307</v>
+        <v>214</v>
+      </c>
+      <c r="S45" t="s">
+        <v>214</v>
+      </c>
+      <c r="T45" t="s">
+        <v>214</v>
+      </c>
+      <c r="V45" t="s">
+        <v>214</v>
       </c>
       <c r="X45" t="s">
         <v>131</v>
@@ -5229,8 +5301,11 @@
       <c r="AO45" t="s">
         <v>59</v>
       </c>
+      <c r="AP45" t="s">
+        <v>214</v>
+      </c>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -5268,19 +5343,28 @@
         <v>44829</v>
       </c>
       <c r="M46" t="s">
-        <v>388</v>
+        <v>268</v>
       </c>
       <c r="N46">
         <v>44829</v>
       </c>
-      <c r="O46">
-        <v>45560</v>
+      <c r="O46" t="s">
+        <v>269</v>
       </c>
       <c r="P46" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="R46" t="s">
-        <v>308</v>
+        <v>215</v>
+      </c>
+      <c r="S46" t="s">
+        <v>215</v>
+      </c>
+      <c r="T46" t="s">
+        <v>215</v>
+      </c>
+      <c r="V46" t="s">
+        <v>215</v>
       </c>
       <c r="X46" t="s">
         <v>131</v>
@@ -5297,8 +5381,11 @@
       <c r="AO46" t="s">
         <v>59</v>
       </c>
+      <c r="AP46" t="s">
+        <v>215</v>
+      </c>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -5336,22 +5423,31 @@
         <v>45035</v>
       </c>
       <c r="M47" t="s">
-        <v>389</v>
+        <v>269</v>
       </c>
       <c r="N47">
         <v>45035</v>
       </c>
-      <c r="O47">
-        <v>45766</v>
+      <c r="O47" t="s">
+        <v>270</v>
       </c>
       <c r="P47" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>44380</v>
       </c>
       <c r="R47" t="s">
-        <v>309</v>
+        <v>216</v>
+      </c>
+      <c r="S47" t="s">
+        <v>216</v>
+      </c>
+      <c r="T47" t="s">
+        <v>216</v>
+      </c>
+      <c r="V47" t="s">
+        <v>216</v>
       </c>
       <c r="X47" t="s">
         <v>131</v>
@@ -5368,8 +5464,11 @@
       <c r="AO47" t="s">
         <v>59</v>
       </c>
+      <c r="AP47" t="s">
+        <v>216</v>
+      </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -5407,22 +5506,31 @@
         <v>44834</v>
       </c>
       <c r="M48" t="s">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="N48">
         <v>44834</v>
       </c>
-      <c r="O48">
-        <v>45565</v>
+      <c r="O48" t="s">
+        <v>271</v>
       </c>
       <c r="P48" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>44380</v>
       </c>
       <c r="R48" t="s">
-        <v>310</v>
+        <v>217</v>
+      </c>
+      <c r="S48" t="s">
+        <v>217</v>
+      </c>
+      <c r="T48" t="s">
+        <v>217</v>
+      </c>
+      <c r="V48" t="s">
+        <v>217</v>
       </c>
       <c r="X48" t="s">
         <v>131</v>
@@ -5439,8 +5547,11 @@
       <c r="AO48" t="s">
         <v>59</v>
       </c>
+      <c r="AP48" t="s">
+        <v>217</v>
+      </c>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -5478,22 +5589,31 @@
         <v>44830</v>
       </c>
       <c r="M49" t="s">
-        <v>391</v>
+        <v>271</v>
       </c>
       <c r="N49">
         <v>44407</v>
       </c>
-      <c r="O49">
-        <v>45137</v>
+      <c r="O49" t="s">
+        <v>272</v>
       </c>
       <c r="P49" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>44386</v>
       </c>
       <c r="R49" t="s">
-        <v>311</v>
+        <v>218</v>
+      </c>
+      <c r="S49" t="s">
+        <v>218</v>
+      </c>
+      <c r="T49" t="s">
+        <v>218</v>
+      </c>
+      <c r="V49" t="s">
+        <v>218</v>
       </c>
       <c r="X49" t="s">
         <v>131</v>
@@ -5510,8 +5630,11 @@
       <c r="AO49" t="s">
         <v>59</v>
       </c>
+      <c r="AP49" t="s">
+        <v>218</v>
+      </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -5549,19 +5672,28 @@
         <v>44813</v>
       </c>
       <c r="M50" t="s">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="N50">
         <v>44456</v>
       </c>
-      <c r="O50">
-        <v>45186</v>
+      <c r="O50" t="s">
+        <v>273</v>
       </c>
       <c r="P50" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="R50" t="s">
-        <v>312</v>
+        <v>219</v>
+      </c>
+      <c r="S50" t="s">
+        <v>219</v>
+      </c>
+      <c r="T50" t="s">
+        <v>219</v>
+      </c>
+      <c r="V50" t="s">
+        <v>219</v>
       </c>
       <c r="X50" t="s">
         <v>131</v>
@@ -5578,8 +5710,11 @@
       <c r="AO50" t="s">
         <v>59</v>
       </c>
+      <c r="AP50" t="s">
+        <v>219</v>
+      </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -5617,22 +5752,31 @@
         <v>44817</v>
       </c>
       <c r="M51" t="s">
-        <v>393</v>
+        <v>273</v>
       </c>
       <c r="N51">
         <v>44453</v>
       </c>
-      <c r="O51">
-        <v>45183</v>
+      <c r="O51" t="s">
+        <v>274</v>
       </c>
       <c r="P51" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>43891</v>
       </c>
       <c r="R51" t="s">
-        <v>313</v>
+        <v>220</v>
+      </c>
+      <c r="S51" t="s">
+        <v>220</v>
+      </c>
+      <c r="T51" t="s">
+        <v>220</v>
+      </c>
+      <c r="V51" t="s">
+        <v>220</v>
       </c>
       <c r="X51" t="s">
         <v>52</v>
@@ -5667,8 +5811,11 @@
       <c r="AO51" t="s">
         <v>59</v>
       </c>
+      <c r="AP51" t="s">
+        <v>220</v>
+      </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -5706,22 +5853,31 @@
         <v>45178</v>
       </c>
       <c r="M52" t="s">
-        <v>394</v>
+        <v>274</v>
       </c>
       <c r="N52">
         <v>44456</v>
       </c>
-      <c r="O52">
-        <v>45186</v>
+      <c r="O52" t="s">
+        <v>275</v>
       </c>
       <c r="P52" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>43905</v>
       </c>
       <c r="R52" t="s">
-        <v>314</v>
+        <v>221</v>
+      </c>
+      <c r="S52" t="s">
+        <v>221</v>
+      </c>
+      <c r="T52" t="s">
+        <v>221</v>
+      </c>
+      <c r="V52" t="s">
+        <v>221</v>
       </c>
       <c r="X52" t="s">
         <v>52</v>
@@ -5756,8 +5912,11 @@
       <c r="AO52" t="s">
         <v>59</v>
       </c>
+      <c r="AP52" t="s">
+        <v>221</v>
+      </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -5795,22 +5954,31 @@
         <v>44764</v>
       </c>
       <c r="M53" t="s">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="N53">
         <v>44399</v>
       </c>
-      <c r="O53">
-        <v>45129</v>
+      <c r="O53" t="s">
+        <v>276</v>
       </c>
       <c r="P53" t="s">
-        <v>315</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>44821</v>
       </c>
       <c r="R53" t="s">
-        <v>315</v>
+        <v>222</v>
+      </c>
+      <c r="S53" t="s">
+        <v>222</v>
+      </c>
+      <c r="T53" t="s">
+        <v>222</v>
+      </c>
+      <c r="V53" t="s">
+        <v>222</v>
       </c>
       <c r="X53" t="s">
         <v>52</v>
@@ -5845,8 +6013,11 @@
       <c r="AO53" t="s">
         <v>59</v>
       </c>
+      <c r="AP53" t="s">
+        <v>222</v>
+      </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -5884,22 +6055,31 @@
         <v>44743</v>
       </c>
       <c r="M54" t="s">
-        <v>396</v>
+        <v>276</v>
       </c>
       <c r="N54">
         <v>44811</v>
       </c>
-      <c r="O54">
-        <v>45542</v>
+      <c r="O54" t="s">
+        <v>277</v>
       </c>
       <c r="P54" t="s">
-        <v>316</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>44378</v>
       </c>
       <c r="R54" t="s">
-        <v>316</v>
+        <v>223</v>
+      </c>
+      <c r="S54" t="s">
+        <v>223</v>
+      </c>
+      <c r="T54" t="s">
+        <v>223</v>
+      </c>
+      <c r="V54" t="s">
+        <v>223</v>
       </c>
       <c r="X54" t="s">
         <v>52</v>
@@ -5934,8 +6114,11 @@
       <c r="AO54" t="s">
         <v>59</v>
       </c>
+      <c r="AP54" t="s">
+        <v>223</v>
+      </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -5973,22 +6156,31 @@
         <v>44810</v>
       </c>
       <c r="M55" t="s">
-        <v>397</v>
+        <v>277</v>
       </c>
       <c r="N55">
         <v>44445</v>
       </c>
-      <c r="O55">
-        <v>45175</v>
+      <c r="O55" t="s">
+        <v>278</v>
       </c>
       <c r="P55" t="s">
-        <v>317</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>44821</v>
       </c>
       <c r="R55" t="s">
-        <v>317</v>
+        <v>224</v>
+      </c>
+      <c r="S55" t="s">
+        <v>224</v>
+      </c>
+      <c r="T55" t="s">
+        <v>224</v>
+      </c>
+      <c r="V55" t="s">
+        <v>224</v>
       </c>
       <c r="X55" t="s">
         <v>52</v>
@@ -6023,2378 +6215,14 @@
       <c r="AO55" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>53</v>
-      </c>
-      <c r="B56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C56" t="s">
-        <v>152</v>
-      </c>
-      <c r="D56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56">
-        <v>11882</v>
-      </c>
-      <c r="G56" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56">
-        <v>387</v>
-      </c>
-      <c r="I56">
-        <v>128</v>
-      </c>
-      <c r="J56">
-        <v>1566</v>
-      </c>
-      <c r="K56">
-        <v>584</v>
-      </c>
-      <c r="L56">
-        <v>44570</v>
-      </c>
-      <c r="M56" t="s">
-        <v>398</v>
-      </c>
-      <c r="N56">
-        <v>44821</v>
-      </c>
-      <c r="O56">
-        <v>45552</v>
-      </c>
-      <c r="P56" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q56">
-        <v>43293</v>
-      </c>
-      <c r="R56" t="s">
-        <v>318</v>
-      </c>
-      <c r="X56" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>164</v>
-      </c>
-      <c r="Z56" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA56" t="s">
-        <v>166</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC56" t="s">
-        <v>167</v>
-      </c>
-      <c r="AD56" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ56">
-        <v>231</v>
-      </c>
-      <c r="AK56">
-        <v>117</v>
-      </c>
-      <c r="AL56">
-        <v>66</v>
-      </c>
-      <c r="AO56" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>54</v>
-      </c>
-      <c r="B57" t="s">
-        <v>151</v>
-      </c>
-      <c r="C57" t="s">
-        <v>152</v>
-      </c>
-      <c r="D57" t="s">
-        <v>49</v>
-      </c>
-      <c r="E57" t="s">
-        <v>172</v>
-      </c>
-      <c r="F57">
-        <v>14234</v>
-      </c>
-      <c r="G57" t="s">
-        <v>51</v>
-      </c>
-      <c r="H57">
-        <v>461</v>
-      </c>
-      <c r="I57">
-        <v>254</v>
-      </c>
-      <c r="J57">
-        <v>2359</v>
-      </c>
-      <c r="K57">
-        <v>1189</v>
-      </c>
-      <c r="M57" t="s">
-        <v>399</v>
-      </c>
-      <c r="P57" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q57">
-        <v>42812</v>
-      </c>
-      <c r="R57" t="s">
-        <v>319</v>
-      </c>
-      <c r="X57" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>174</v>
-      </c>
-      <c r="Z57" t="s">
-        <v>175</v>
-      </c>
-      <c r="AA57" t="s">
-        <v>176</v>
-      </c>
-      <c r="AE57" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF57" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG57">
-        <v>45403</v>
-      </c>
-      <c r="AH57" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ57">
-        <v>74</v>
-      </c>
-      <c r="AK57">
-        <v>124</v>
-      </c>
-      <c r="AL57">
-        <v>194</v>
-      </c>
-      <c r="AO57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>55</v>
-      </c>
-      <c r="B58" t="s">
-        <v>151</v>
-      </c>
-      <c r="C58" t="s">
-        <v>157</v>
-      </c>
-      <c r="D58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58">
-        <v>8032</v>
-      </c>
-      <c r="G58" t="s">
-        <v>51</v>
-      </c>
-      <c r="H58">
-        <v>496</v>
-      </c>
-      <c r="I58">
-        <v>987</v>
-      </c>
-      <c r="J58">
-        <v>1282</v>
-      </c>
-      <c r="K58">
-        <v>1346</v>
-      </c>
-      <c r="L58">
-        <v>45043</v>
-      </c>
-      <c r="M58" t="s">
-        <v>400</v>
-      </c>
-      <c r="N58" t="s">
-        <v>181</v>
-      </c>
-      <c r="O58" t="s">
-        <v>182</v>
-      </c>
-      <c r="P58" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q58">
-        <v>43670</v>
-      </c>
-      <c r="R58" t="s">
-        <v>320</v>
-      </c>
-      <c r="X58" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ58">
-        <v>134</v>
-      </c>
-      <c r="AK58">
-        <v>180</v>
-      </c>
-      <c r="AL58">
-        <v>171</v>
-      </c>
-      <c r="AO58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" t="s">
-        <v>152</v>
-      </c>
-      <c r="D59" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" t="s">
-        <v>183</v>
-      </c>
-      <c r="F59">
-        <v>8571</v>
-      </c>
-      <c r="G59" t="s">
-        <v>51</v>
-      </c>
-      <c r="H59">
-        <v>953</v>
-      </c>
-      <c r="I59">
-        <v>315</v>
-      </c>
-      <c r="J59">
-        <v>1932</v>
-      </c>
-      <c r="K59">
-        <v>783</v>
-      </c>
-      <c r="L59">
-        <v>44728</v>
-      </c>
-      <c r="M59" t="s">
-        <v>401</v>
-      </c>
-      <c r="N59">
-        <v>44816</v>
-      </c>
-      <c r="O59">
-        <v>45547</v>
-      </c>
-      <c r="P59" t="s">
-        <v>321</v>
-      </c>
-      <c r="R59" t="s">
-        <v>321</v>
-      </c>
-      <c r="X59" t="s">
-        <v>173</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>184</v>
-      </c>
-      <c r="Z59" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA59" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>187</v>
-      </c>
-      <c r="AF59" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG59">
-        <v>45405</v>
-      </c>
-      <c r="AH59" t="s">
-        <v>179</v>
-      </c>
-      <c r="AJ59">
-        <v>118</v>
-      </c>
-      <c r="AK59">
-        <v>155</v>
-      </c>
-      <c r="AL59">
-        <v>202</v>
-      </c>
-      <c r="AO59" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>57</v>
-      </c>
-      <c r="B60" t="s">
-        <v>151</v>
-      </c>
-      <c r="C60" t="s">
-        <v>152</v>
-      </c>
-      <c r="D60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E60" t="s">
-        <v>188</v>
-      </c>
-      <c r="F60">
-        <v>10860</v>
-      </c>
-      <c r="G60" t="s">
-        <v>51</v>
-      </c>
-      <c r="H60">
-        <v>860</v>
-      </c>
-      <c r="I60">
-        <v>317</v>
-      </c>
-      <c r="J60">
-        <v>1626</v>
-      </c>
-      <c r="K60">
-        <v>592</v>
-      </c>
-      <c r="L60">
-        <v>44826</v>
-      </c>
-      <c r="M60" t="s">
-        <v>402</v>
-      </c>
-      <c r="N60">
-        <v>45191</v>
-      </c>
-      <c r="O60">
-        <v>45922</v>
-      </c>
-      <c r="P60" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q60">
-        <v>43437</v>
-      </c>
-      <c r="R60" t="s">
-        <v>322</v>
-      </c>
-      <c r="X60" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ60">
-        <v>128</v>
-      </c>
-      <c r="AK60">
-        <v>212</v>
-      </c>
-      <c r="AL60">
-        <v>214</v>
-      </c>
-      <c r="AO60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>58</v>
-      </c>
-      <c r="B61" t="s">
-        <v>151</v>
-      </c>
-      <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" t="s">
-        <v>189</v>
-      </c>
-      <c r="F61">
-        <v>8145</v>
-      </c>
-      <c r="G61" t="s">
-        <v>51</v>
-      </c>
-      <c r="H61">
-        <v>1577</v>
-      </c>
-      <c r="I61">
-        <v>556</v>
-      </c>
-      <c r="J61">
-        <v>2484</v>
-      </c>
-      <c r="K61">
-        <v>882</v>
-      </c>
-      <c r="L61">
-        <v>44926</v>
-      </c>
-      <c r="M61" t="s">
-        <v>403</v>
-      </c>
-      <c r="N61">
-        <v>44925</v>
-      </c>
-      <c r="O61">
-        <v>45656</v>
-      </c>
-      <c r="P61" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q61">
-        <v>44942</v>
-      </c>
-      <c r="R61" t="s">
-        <v>323</v>
-      </c>
-      <c r="X61" t="s">
-        <v>131</v>
-      </c>
-      <c r="AJ61">
-        <v>170</v>
-      </c>
-      <c r="AK61">
-        <v>116</v>
-      </c>
-      <c r="AL61">
-        <v>213</v>
-      </c>
-      <c r="AO61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>80</v>
-      </c>
-      <c r="B62" t="s">
-        <v>151</v>
-      </c>
-      <c r="C62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" t="s">
-        <v>190</v>
-      </c>
-      <c r="F62">
-        <v>7952</v>
-      </c>
-      <c r="G62" t="s">
-        <v>51</v>
-      </c>
-      <c r="H62">
-        <v>926</v>
-      </c>
-      <c r="I62">
-        <v>411</v>
-      </c>
-      <c r="J62">
-        <v>991</v>
-      </c>
-      <c r="K62">
-        <v>1379</v>
-      </c>
-      <c r="L62">
-        <v>44834</v>
-      </c>
-      <c r="M62" t="s">
-        <v>404</v>
-      </c>
-      <c r="N62">
-        <v>44452</v>
-      </c>
-      <c r="O62">
-        <v>45182</v>
-      </c>
-      <c r="P62" t="s">
-        <v>324</v>
-      </c>
-      <c r="R62" t="s">
-        <v>324</v>
-      </c>
-      <c r="X62" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA62" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE62" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF62" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG62">
-        <v>43803</v>
-      </c>
-      <c r="AH62" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ62">
-        <v>108</v>
-      </c>
-      <c r="AK62">
-        <v>202</v>
-      </c>
-      <c r="AL62">
-        <v>111</v>
-      </c>
-      <c r="AO62" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>81</v>
-      </c>
-      <c r="B63" t="s">
-        <v>151</v>
-      </c>
-      <c r="C63" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" t="s">
-        <v>49</v>
-      </c>
-      <c r="E63" t="s">
-        <v>196</v>
-      </c>
-      <c r="F63">
-        <v>5866</v>
-      </c>
-      <c r="G63" t="s">
-        <v>51</v>
-      </c>
-      <c r="H63">
-        <v>127</v>
-      </c>
-      <c r="I63">
-        <v>89</v>
-      </c>
-      <c r="J63">
-        <v>282</v>
-      </c>
-      <c r="K63">
-        <v>394</v>
-      </c>
-      <c r="L63">
-        <v>44817</v>
-      </c>
-      <c r="M63" t="s">
-        <v>405</v>
-      </c>
-      <c r="N63">
-        <v>44458</v>
-      </c>
-      <c r="O63">
-        <v>45188</v>
-      </c>
-      <c r="P63" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q63">
-        <v>44380</v>
-      </c>
-      <c r="R63" t="s">
-        <v>325</v>
-      </c>
-      <c r="X63" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z63" t="s">
-        <v>199</v>
-      </c>
-      <c r="AA63" t="s">
-        <v>200</v>
-      </c>
-      <c r="AB63" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC63" t="s">
-        <v>167</v>
-      </c>
-      <c r="AJ63">
-        <v>209</v>
-      </c>
-      <c r="AK63">
-        <v>250</v>
-      </c>
-      <c r="AL63">
-        <v>154</v>
-      </c>
-      <c r="AO63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>82</v>
-      </c>
-      <c r="B64" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" t="s">
-        <v>152</v>
-      </c>
-      <c r="D64" t="s">
-        <v>49</v>
-      </c>
-      <c r="E64" t="s">
-        <v>201</v>
-      </c>
-      <c r="F64">
-        <v>4423</v>
-      </c>
-      <c r="G64" t="s">
-        <v>51</v>
-      </c>
-      <c r="H64">
-        <v>218</v>
-      </c>
-      <c r="I64">
-        <v>105</v>
-      </c>
-      <c r="J64">
-        <v>415</v>
-      </c>
-      <c r="K64">
-        <v>656</v>
-      </c>
-      <c r="L64">
-        <v>44922</v>
-      </c>
-      <c r="M64" t="s">
-        <v>406</v>
-      </c>
-      <c r="N64">
-        <v>44446</v>
-      </c>
-      <c r="O64">
-        <v>45176</v>
-      </c>
-      <c r="P64" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q64">
-        <v>43881</v>
-      </c>
-      <c r="R64" t="s">
-        <v>326</v>
-      </c>
-      <c r="X64" t="s">
-        <v>191</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA64" t="s">
-        <v>193</v>
-      </c>
-      <c r="AE64" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF64" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG64">
-        <v>43803</v>
-      </c>
-      <c r="AH64" t="s">
-        <v>195</v>
-      </c>
-      <c r="AJ64">
-        <v>201</v>
-      </c>
-      <c r="AK64">
-        <v>135</v>
-      </c>
-      <c r="AL64">
-        <v>85</v>
-      </c>
-      <c r="AO64" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>82</v>
-      </c>
-      <c r="B65" t="s">
-        <v>202</v>
-      </c>
-      <c r="C65" t="s">
-        <v>203</v>
-      </c>
-      <c r="D65" t="s">
-        <v>204</v>
-      </c>
-      <c r="E65" t="s">
-        <v>205</v>
-      </c>
-      <c r="F65">
-        <v>9129</v>
-      </c>
-      <c r="G65" t="s">
-        <v>51</v>
-      </c>
-      <c r="H65">
-        <v>959</v>
-      </c>
-      <c r="I65">
-        <v>346</v>
-      </c>
-      <c r="J65">
-        <v>1710</v>
-      </c>
-      <c r="K65">
-        <v>1026</v>
-      </c>
-      <c r="L65">
-        <v>44923</v>
-      </c>
-      <c r="M65" t="s">
-        <v>407</v>
-      </c>
-      <c r="N65">
-        <v>44726</v>
-      </c>
-      <c r="O65">
-        <v>45091</v>
-      </c>
-      <c r="P65" t="s">
-        <v>327</v>
-      </c>
-      <c r="R65" t="s">
-        <v>327</v>
-      </c>
-      <c r="X65" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z65" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA65" t="s">
-        <v>207</v>
-      </c>
-      <c r="AB65" t="s">
-        <v>208</v>
-      </c>
-      <c r="AC65" t="s">
-        <v>209</v>
-      </c>
-      <c r="AD65" t="s">
-        <v>210</v>
-      </c>
-      <c r="AK65">
-        <v>108</v>
-      </c>
-      <c r="AL65">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>82</v>
-      </c>
-      <c r="B66" t="s">
-        <v>202</v>
-      </c>
-      <c r="C66" t="s">
-        <v>211</v>
-      </c>
-      <c r="D66" t="s">
-        <v>204</v>
-      </c>
-      <c r="E66" t="s">
-        <v>212</v>
-      </c>
-      <c r="F66">
-        <v>1588</v>
-      </c>
-      <c r="G66" t="s">
-        <v>51</v>
-      </c>
-      <c r="H66">
-        <v>577</v>
-      </c>
-      <c r="I66">
-        <v>577</v>
-      </c>
-      <c r="J66">
-        <v>1802</v>
-      </c>
-      <c r="K66">
-        <v>1460</v>
-      </c>
-      <c r="L66">
-        <v>44885</v>
-      </c>
-      <c r="M66" t="s">
-        <v>408</v>
-      </c>
-      <c r="N66">
-        <v>44930</v>
-      </c>
-      <c r="O66">
-        <v>45295</v>
-      </c>
-      <c r="P66" t="s">
-        <v>328</v>
-      </c>
-      <c r="R66" t="s">
-        <v>328</v>
-      </c>
-      <c r="X66" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>206</v>
-      </c>
-      <c r="Z66" t="s">
-        <v>165</v>
-      </c>
-      <c r="AA66" t="s">
-        <v>213</v>
-      </c>
-      <c r="AB66" t="s">
-        <v>214</v>
-      </c>
-      <c r="AC66" t="s">
-        <v>215</v>
-      </c>
-      <c r="AD66" t="s">
-        <v>216</v>
-      </c>
-      <c r="AK66">
-        <v>92</v>
-      </c>
-      <c r="AL66">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>82</v>
-      </c>
-      <c r="B67" t="s">
-        <v>202</v>
-      </c>
-      <c r="C67" t="s">
-        <v>211</v>
-      </c>
-      <c r="D67" t="s">
-        <v>204</v>
-      </c>
-      <c r="E67" t="s">
-        <v>217</v>
-      </c>
-      <c r="F67">
-        <v>11240</v>
-      </c>
-      <c r="G67" t="s">
-        <v>51</v>
-      </c>
-      <c r="H67">
-        <v>1778</v>
-      </c>
-      <c r="I67">
-        <v>665</v>
-      </c>
-      <c r="J67">
-        <v>2103</v>
-      </c>
-      <c r="K67">
-        <v>1486</v>
-      </c>
-      <c r="L67">
-        <v>45076</v>
-      </c>
-      <c r="M67" t="s">
-        <v>409</v>
-      </c>
-      <c r="N67">
-        <v>44864</v>
-      </c>
-      <c r="O67">
-        <v>45229</v>
-      </c>
-      <c r="P67" t="s">
-        <v>329</v>
-      </c>
-      <c r="R67" t="s">
-        <v>329</v>
-      </c>
-      <c r="X67" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK67">
+      <c r="AP55" t="s">
         <v>224</v>
-      </c>
-      <c r="AL67">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>82</v>
-      </c>
-      <c r="B68" t="s">
-        <v>202</v>
-      </c>
-      <c r="C68" t="s">
-        <v>211</v>
-      </c>
-      <c r="D68" t="s">
-        <v>204</v>
-      </c>
-      <c r="E68" t="s">
-        <v>219</v>
-      </c>
-      <c r="F68">
-        <v>6669</v>
-      </c>
-      <c r="G68" t="s">
-        <v>51</v>
-      </c>
-      <c r="H68">
-        <v>283</v>
-      </c>
-      <c r="I68">
-        <v>98</v>
-      </c>
-      <c r="J68">
-        <v>2314</v>
-      </c>
-      <c r="K68">
-        <v>959</v>
-      </c>
-      <c r="L68">
-        <v>44903</v>
-      </c>
-      <c r="M68" t="s">
-        <v>410</v>
-      </c>
-      <c r="N68">
-        <v>44749</v>
-      </c>
-      <c r="O68">
-        <v>45114</v>
-      </c>
-      <c r="P68" t="s">
-        <v>330</v>
-      </c>
-      <c r="R68" t="s">
-        <v>330</v>
-      </c>
-      <c r="X68" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK68">
-        <v>243</v>
-      </c>
-      <c r="AL68">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>82</v>
-      </c>
-      <c r="B69" t="s">
-        <v>202</v>
-      </c>
-      <c r="C69" t="s">
-        <v>211</v>
-      </c>
-      <c r="D69" t="s">
-        <v>204</v>
-      </c>
-      <c r="E69" t="s">
-        <v>220</v>
-      </c>
-      <c r="F69">
-        <v>11025</v>
-      </c>
-      <c r="G69" t="s">
-        <v>51</v>
-      </c>
-      <c r="H69">
-        <v>1094</v>
-      </c>
-      <c r="I69">
-        <v>388</v>
-      </c>
-      <c r="J69">
-        <v>1437</v>
-      </c>
-      <c r="K69">
-        <v>1438</v>
-      </c>
-      <c r="L69">
-        <v>45021</v>
-      </c>
-      <c r="M69" t="s">
-        <v>411</v>
-      </c>
-      <c r="N69">
-        <v>45021</v>
-      </c>
-      <c r="O69">
-        <v>45387</v>
-      </c>
-      <c r="P69" t="s">
-        <v>331</v>
-      </c>
-      <c r="R69" t="s">
-        <v>331</v>
-      </c>
-      <c r="X69" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK69">
-        <v>208</v>
-      </c>
-      <c r="AL69">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>82</v>
-      </c>
-      <c r="B70" t="s">
-        <v>202</v>
-      </c>
-      <c r="C70" t="s">
-        <v>211</v>
-      </c>
-      <c r="D70" t="s">
-        <v>204</v>
-      </c>
-      <c r="E70" t="s">
-        <v>221</v>
-      </c>
-      <c r="F70">
-        <v>7205</v>
-      </c>
-      <c r="G70" t="s">
-        <v>51</v>
-      </c>
-      <c r="H70">
-        <v>525</v>
-      </c>
-      <c r="I70">
-        <v>165</v>
-      </c>
-      <c r="J70">
-        <v>758</v>
-      </c>
-      <c r="K70">
-        <v>480</v>
-      </c>
-      <c r="L70">
-        <v>44917</v>
-      </c>
-      <c r="M70" t="s">
-        <v>412</v>
-      </c>
-      <c r="N70">
-        <v>45020</v>
-      </c>
-      <c r="O70">
-        <v>45386</v>
-      </c>
-      <c r="P70" t="s">
-        <v>332</v>
-      </c>
-      <c r="R70" t="s">
-        <v>332</v>
-      </c>
-      <c r="X70" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>224</v>
-      </c>
-      <c r="AE70" t="s">
-        <v>225</v>
-      </c>
-      <c r="AF70" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG70">
-        <v>45186</v>
-      </c>
-      <c r="AH70" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK70">
-        <v>200</v>
-      </c>
-      <c r="AL70">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>82</v>
-      </c>
-      <c r="B71" t="s">
-        <v>202</v>
-      </c>
-      <c r="C71" t="s">
-        <v>211</v>
-      </c>
-      <c r="D71" t="s">
-        <v>204</v>
-      </c>
-      <c r="E71" t="s">
-        <v>228</v>
-      </c>
-      <c r="F71">
-        <v>7586</v>
-      </c>
-      <c r="G71" t="s">
-        <v>51</v>
-      </c>
-      <c r="H71">
-        <v>532</v>
-      </c>
-      <c r="I71">
-        <v>183</v>
-      </c>
-      <c r="J71">
-        <v>1827</v>
-      </c>
-      <c r="K71">
-        <v>1370</v>
-      </c>
-      <c r="L71">
-        <v>44989</v>
-      </c>
-      <c r="M71" t="s">
-        <v>413</v>
-      </c>
-      <c r="N71">
-        <v>45017</v>
-      </c>
-      <c r="O71">
-        <v>45383</v>
-      </c>
-      <c r="P71" t="s">
-        <v>333</v>
-      </c>
-      <c r="R71" t="s">
-        <v>333</v>
-      </c>
-      <c r="X71" t="s">
-        <v>218</v>
-      </c>
-      <c r="AK71">
-        <v>225</v>
-      </c>
-      <c r="AL71">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>82</v>
-      </c>
-      <c r="B72" t="s">
-        <v>202</v>
-      </c>
-      <c r="C72" t="s">
-        <v>211</v>
-      </c>
-      <c r="D72" t="s">
-        <v>204</v>
-      </c>
-      <c r="E72" t="s">
-        <v>229</v>
-      </c>
-      <c r="F72">
-        <v>11437</v>
-      </c>
-      <c r="G72" t="s">
-        <v>230</v>
-      </c>
-      <c r="H72">
-        <v>1202</v>
-      </c>
-      <c r="I72">
-        <v>595</v>
-      </c>
-      <c r="J72">
-        <v>2068</v>
-      </c>
-      <c r="K72">
-        <v>1282</v>
-      </c>
-      <c r="L72">
-        <v>45057</v>
-      </c>
-      <c r="M72" t="s">
-        <v>414</v>
-      </c>
-      <c r="N72">
-        <v>44988</v>
-      </c>
-      <c r="O72">
-        <v>45354</v>
-      </c>
-      <c r="P72" t="s">
-        <v>334</v>
-      </c>
-      <c r="R72" t="s">
-        <v>334</v>
-      </c>
-      <c r="X72" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="73" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>82</v>
-      </c>
-      <c r="B73" t="s">
-        <v>202</v>
-      </c>
-      <c r="C73" t="s">
-        <v>211</v>
-      </c>
-      <c r="D73" t="s">
-        <v>204</v>
-      </c>
-      <c r="E73" t="s">
-        <v>231</v>
-      </c>
-      <c r="F73">
-        <v>10752</v>
-      </c>
-      <c r="G73" t="s">
-        <v>230</v>
-      </c>
-      <c r="H73">
-        <v>183</v>
-      </c>
-      <c r="I73">
-        <v>74</v>
-      </c>
-      <c r="J73">
-        <v>1462</v>
-      </c>
-      <c r="K73">
-        <v>495</v>
-      </c>
-      <c r="L73">
-        <v>44896</v>
-      </c>
-      <c r="M73" t="s">
-        <v>415</v>
-      </c>
-      <c r="N73">
-        <v>44812</v>
-      </c>
-      <c r="O73">
-        <v>45177</v>
-      </c>
-      <c r="P73" t="s">
-        <v>335</v>
-      </c>
-      <c r="R73" t="s">
-        <v>335</v>
-      </c>
-      <c r="X73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>82</v>
-      </c>
-      <c r="B74" t="s">
-        <v>202</v>
-      </c>
-      <c r="C74" t="s">
-        <v>203</v>
-      </c>
-      <c r="D74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" t="s">
-        <v>232</v>
-      </c>
-      <c r="F74">
-        <v>9632</v>
-      </c>
-      <c r="G74" t="s">
-        <v>51</v>
-      </c>
-      <c r="H74">
-        <v>1228</v>
-      </c>
-      <c r="I74">
-        <v>432</v>
-      </c>
-      <c r="J74">
-        <v>1649</v>
-      </c>
-      <c r="K74">
-        <v>961</v>
-      </c>
-      <c r="L74">
-        <v>44895</v>
-      </c>
-      <c r="M74" t="s">
-        <v>416</v>
-      </c>
-      <c r="N74">
-        <v>44923</v>
-      </c>
-      <c r="O74">
-        <v>45288</v>
-      </c>
-      <c r="P74" t="s">
-        <v>336</v>
-      </c>
-      <c r="R74" t="s">
-        <v>336</v>
-      </c>
-      <c r="S74">
-        <v>42676</v>
-      </c>
-      <c r="T74">
-        <v>45232</v>
-      </c>
-      <c r="X74" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>82</v>
-      </c>
-      <c r="B75" t="s">
-        <v>202</v>
-      </c>
-      <c r="C75" t="s">
-        <v>203</v>
-      </c>
-      <c r="D75" t="s">
-        <v>49</v>
-      </c>
-      <c r="E75" t="s">
-        <v>233</v>
-      </c>
-      <c r="F75">
-        <v>7158</v>
-      </c>
-      <c r="G75" t="s">
-        <v>51</v>
-      </c>
-      <c r="H75">
-        <v>609</v>
-      </c>
-      <c r="I75">
-        <v>231</v>
-      </c>
-      <c r="J75">
-        <v>1975</v>
-      </c>
-      <c r="K75">
-        <v>400</v>
-      </c>
-      <c r="L75">
-        <v>44917</v>
-      </c>
-      <c r="M75" t="s">
-        <v>417</v>
-      </c>
-      <c r="N75">
-        <v>45275</v>
-      </c>
-      <c r="O75">
-        <v>45641</v>
-      </c>
-      <c r="P75" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>234</v>
-      </c>
-      <c r="R75" t="s">
-        <v>337</v>
-      </c>
-      <c r="S75">
-        <v>43117</v>
-      </c>
-      <c r="T75">
-        <v>45674</v>
-      </c>
-      <c r="X75" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>82</v>
-      </c>
-      <c r="B76" t="s">
-        <v>235</v>
-      </c>
-      <c r="C76" t="s">
-        <v>236</v>
-      </c>
-      <c r="D76" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" t="s">
-        <v>237</v>
-      </c>
-      <c r="F76">
-        <v>10923</v>
-      </c>
-      <c r="G76" t="s">
-        <v>230</v>
-      </c>
-      <c r="H76">
-        <v>428</v>
-      </c>
-      <c r="I76" t="s">
-        <v>238</v>
-      </c>
-      <c r="J76">
-        <v>908</v>
-      </c>
-      <c r="K76">
-        <v>1177</v>
-      </c>
-      <c r="L76">
-        <v>45083</v>
-      </c>
-      <c r="M76" t="s">
-        <v>418</v>
-      </c>
-      <c r="N76">
-        <v>45083</v>
-      </c>
-      <c r="O76">
-        <v>45449</v>
-      </c>
-      <c r="R76" t="s">
-        <v>338</v>
-      </c>
-      <c r="S76">
-        <v>44027</v>
-      </c>
-      <c r="T76">
-        <v>46583</v>
-      </c>
-      <c r="X76" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>239</v>
-      </c>
-      <c r="Z76" t="s">
-        <v>185</v>
-      </c>
-      <c r="AA76" t="s">
-        <v>240</v>
-      </c>
-      <c r="AE76" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF76" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG76">
-        <v>45074</v>
-      </c>
-      <c r="AH76" t="s">
-        <v>243</v>
-      </c>
-      <c r="AJ76">
-        <v>207</v>
-      </c>
-      <c r="AM76">
-        <v>45402</v>
-      </c>
-      <c r="AN76">
-        <v>45403</v>
-      </c>
-      <c r="AO76" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>82</v>
-      </c>
-      <c r="B77" t="s">
-        <v>235</v>
-      </c>
-      <c r="C77" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>49</v>
-      </c>
-      <c r="E77" t="s">
-        <v>244</v>
-      </c>
-      <c r="F77">
-        <v>9232</v>
-      </c>
-      <c r="G77" t="s">
-        <v>51</v>
-      </c>
-      <c r="H77">
-        <v>758</v>
-      </c>
-      <c r="I77">
-        <v>995</v>
-      </c>
-      <c r="J77">
-        <v>2222</v>
-      </c>
-      <c r="K77">
-        <v>1058</v>
-      </c>
-      <c r="M77" t="s">
-        <v>419</v>
-      </c>
-      <c r="P77">
-        <v>43429</v>
-      </c>
-      <c r="Q77">
-        <v>44769</v>
-      </c>
-      <c r="R77" t="s">
-        <v>339</v>
-      </c>
-      <c r="S77" t="s">
-        <v>234</v>
-      </c>
-      <c r="X77" t="s">
-        <v>218</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>245</v>
-      </c>
-      <c r="Z77" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA77" t="s">
-        <v>246</v>
-      </c>
-      <c r="AE77" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF77" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG77">
-        <v>45055</v>
-      </c>
-      <c r="AH77" t="s">
-        <v>248</v>
-      </c>
-      <c r="AJ77">
-        <v>93</v>
-      </c>
-      <c r="AM77">
-        <v>45402</v>
-      </c>
-      <c r="AN77">
-        <v>45403</v>
-      </c>
-      <c r="AO77" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>82</v>
-      </c>
-      <c r="B78" t="s">
-        <v>235</v>
-      </c>
-      <c r="C78" t="s">
-        <v>236</v>
-      </c>
-      <c r="D78" t="s">
-        <v>204</v>
-      </c>
-      <c r="E78" t="s">
-        <v>249</v>
-      </c>
-      <c r="F78">
-        <v>4527</v>
-      </c>
-      <c r="G78" t="s">
-        <v>51</v>
-      </c>
-      <c r="H78">
-        <v>668</v>
-      </c>
-      <c r="I78">
-        <v>336</v>
-      </c>
-      <c r="J78">
-        <v>796</v>
-      </c>
-      <c r="K78">
-        <v>1335</v>
-      </c>
-      <c r="M78" t="s">
-        <v>420</v>
-      </c>
-      <c r="P78">
-        <v>2025</v>
-      </c>
-      <c r="R78" t="s">
-        <v>340</v>
-      </c>
-      <c r="X78" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ78">
-        <v>232</v>
-      </c>
-      <c r="AM78">
-        <v>45432</v>
-      </c>
-      <c r="AN78">
-        <v>45403</v>
-      </c>
-      <c r="AO78" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>82</v>
-      </c>
-      <c r="B79" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" t="s">
-        <v>236</v>
-      </c>
-      <c r="D79" t="s">
-        <v>204</v>
-      </c>
-      <c r="E79" t="s">
-        <v>250</v>
-      </c>
-      <c r="F79">
-        <v>6943</v>
-      </c>
-      <c r="G79" t="s">
-        <v>51</v>
-      </c>
-      <c r="H79">
-        <v>688</v>
-      </c>
-      <c r="I79">
-        <v>297</v>
-      </c>
-      <c r="J79">
-        <v>1892</v>
-      </c>
-      <c r="K79">
-        <v>373</v>
-      </c>
-      <c r="L79">
-        <v>45097</v>
-      </c>
-      <c r="M79" t="s">
-        <v>421</v>
-      </c>
-      <c r="N79">
-        <v>44793</v>
-      </c>
-      <c r="O79">
-        <v>45158</v>
-      </c>
-      <c r="P79">
-        <v>2025</v>
-      </c>
-      <c r="R79" t="s">
-        <v>341</v>
-      </c>
-      <c r="X79" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ79">
-        <v>215</v>
-      </c>
-      <c r="AM79">
-        <v>45432</v>
-      </c>
-      <c r="AN79">
-        <v>45403</v>
-      </c>
-      <c r="AO79" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>82</v>
-      </c>
-      <c r="B80" t="s">
-        <v>251</v>
-      </c>
-      <c r="C80" t="s">
-        <v>252</v>
-      </c>
-      <c r="D80" t="s">
-        <v>204</v>
-      </c>
-      <c r="E80" t="s">
-        <v>253</v>
-      </c>
-      <c r="F80">
-        <v>11448</v>
-      </c>
-      <c r="G80" t="s">
-        <v>51</v>
-      </c>
-      <c r="H80">
-        <v>676</v>
-      </c>
-      <c r="I80">
-        <v>339</v>
-      </c>
-      <c r="J80">
-        <v>1248</v>
-      </c>
-      <c r="K80">
-        <v>1342</v>
-      </c>
-      <c r="M80" t="s">
-        <v>422</v>
-      </c>
-      <c r="P80">
-        <v>2025</v>
-      </c>
-      <c r="R80" t="s">
-        <v>342</v>
-      </c>
-      <c r="X80" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ80">
-        <v>195</v>
-      </c>
-      <c r="AM80">
-        <v>45432</v>
-      </c>
-      <c r="AN80">
-        <v>45403</v>
-      </c>
-      <c r="AO80" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>82</v>
-      </c>
-      <c r="B81" t="s">
-        <v>251</v>
-      </c>
-      <c r="C81" t="s">
-        <v>252</v>
-      </c>
-      <c r="D81" t="s">
-        <v>204</v>
-      </c>
-      <c r="E81" t="s">
-        <v>254</v>
-      </c>
-      <c r="F81">
-        <v>2431</v>
-      </c>
-      <c r="G81" t="s">
-        <v>51</v>
-      </c>
-      <c r="I81">
-        <v>225</v>
-      </c>
-      <c r="J81">
-        <v>1250</v>
-      </c>
-      <c r="K81">
-        <v>307</v>
-      </c>
-      <c r="L81">
-        <v>45083</v>
-      </c>
-      <c r="M81" t="s">
-        <v>423</v>
-      </c>
-      <c r="N81">
-        <v>45083</v>
-      </c>
-      <c r="O81">
-        <v>45449</v>
-      </c>
-      <c r="P81">
-        <v>2025</v>
-      </c>
-      <c r="R81" t="s">
-        <v>343</v>
-      </c>
-      <c r="X81" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ81">
-        <v>162</v>
-      </c>
-      <c r="AM81">
-        <v>45432</v>
-      </c>
-      <c r="AN81">
-        <v>45403</v>
-      </c>
-      <c r="AO81" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>82</v>
-      </c>
-      <c r="B82" t="s">
-        <v>251</v>
-      </c>
-      <c r="C82" t="s">
-        <v>236</v>
-      </c>
-      <c r="D82" t="s">
-        <v>49</v>
-      </c>
-      <c r="E82" t="s">
-        <v>255</v>
-      </c>
-      <c r="F82">
-        <v>3846</v>
-      </c>
-      <c r="G82" t="s">
-        <v>230</v>
-      </c>
-      <c r="H82">
-        <v>1164</v>
-      </c>
-      <c r="I82">
-        <v>702</v>
-      </c>
-      <c r="J82">
-        <v>2486</v>
-      </c>
-      <c r="K82">
-        <v>1280</v>
-      </c>
-      <c r="M82" t="s">
-        <v>424</v>
-      </c>
-      <c r="P82">
-        <v>2004</v>
-      </c>
-      <c r="R82" t="s">
-        <v>344</v>
-      </c>
-      <c r="S82">
-        <v>41652</v>
-      </c>
-      <c r="T82">
-        <v>44209</v>
-      </c>
-      <c r="U82">
-        <v>44022</v>
-      </c>
-      <c r="V82">
-        <v>46213</v>
-      </c>
-      <c r="X82" t="s">
-        <v>218</v>
-      </c>
-      <c r="AJ82">
-        <v>98</v>
-      </c>
-      <c r="AM82">
-        <v>45432</v>
-      </c>
-      <c r="AN82">
-        <v>45403</v>
-      </c>
-      <c r="AO82" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" t="s">
-        <v>46</v>
-      </c>
-      <c r="D83" t="s">
-        <v>46</v>
-      </c>
-      <c r="E83" t="s">
-        <v>46</v>
-      </c>
-      <c r="F83" t="s">
-        <v>46</v>
-      </c>
-      <c r="G83" t="s">
-        <v>46</v>
-      </c>
-      <c r="H83" t="s">
-        <v>46</v>
-      </c>
-      <c r="I83" t="s">
-        <v>46</v>
-      </c>
-      <c r="J83" t="s">
-        <v>46</v>
-      </c>
-      <c r="K83" t="s">
-        <v>46</v>
-      </c>
-      <c r="L83" t="s">
-        <v>46</v>
-      </c>
-      <c r="M83" t="s">
-        <v>425</v>
-      </c>
-      <c r="N83" t="s">
-        <v>46</v>
-      </c>
-      <c r="O83" t="s">
-        <v>46</v>
-      </c>
-      <c r="P83" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>46</v>
-      </c>
-      <c r="R83" t="s">
-        <v>46</v>
-      </c>
-      <c r="S83" t="s">
-        <v>46</v>
-      </c>
-      <c r="T83" t="s">
-        <v>46</v>
-      </c>
-      <c r="U83" t="s">
-        <v>46</v>
-      </c>
-      <c r="V83" t="s">
-        <v>46</v>
-      </c>
-      <c r="W83" t="s">
-        <v>46</v>
-      </c>
-      <c r="X83" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI83" t="s">
-        <v>257</v>
-      </c>
-      <c r="AJ83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ83" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR83" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>258</v>
-      </c>
-      <c r="B84" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" t="s">
-        <v>46</v>
-      </c>
-      <c r="E84" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" t="s">
-        <v>46</v>
-      </c>
-      <c r="G84" t="s">
-        <v>46</v>
-      </c>
-      <c r="H84" t="s">
-        <v>46</v>
-      </c>
-      <c r="I84" t="s">
-        <v>46</v>
-      </c>
-      <c r="J84" t="s">
-        <v>46</v>
-      </c>
-      <c r="K84" t="s">
-        <v>46</v>
-      </c>
-      <c r="L84" t="s">
-        <v>46</v>
-      </c>
-      <c r="M84" t="s">
-        <v>426</v>
-      </c>
-      <c r="N84" t="s">
-        <v>46</v>
-      </c>
-      <c r="O84" t="s">
-        <v>46</v>
-      </c>
-      <c r="P84" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>46</v>
-      </c>
-      <c r="R84" t="s">
-        <v>46</v>
-      </c>
-      <c r="S84" t="s">
-        <v>46</v>
-      </c>
-      <c r="T84" t="s">
-        <v>46</v>
-      </c>
-      <c r="U84" t="s">
-        <v>46</v>
-      </c>
-      <c r="V84" t="s">
-        <v>46</v>
-      </c>
-      <c r="W84" t="s">
-        <v>46</v>
-      </c>
-      <c r="X84" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ84" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR84" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>260</v>
-      </c>
-      <c r="B85" t="s">
-        <v>261</v>
-      </c>
-      <c r="C85" t="s">
-        <v>46</v>
-      </c>
-      <c r="D85" t="s">
-        <v>262</v>
-      </c>
-      <c r="E85" t="s">
-        <v>46</v>
-      </c>
-      <c r="F85" t="s">
-        <v>263</v>
-      </c>
-      <c r="G85" t="s">
-        <v>46</v>
-      </c>
-      <c r="H85" t="s">
-        <v>263</v>
-      </c>
-      <c r="I85" t="s">
-        <v>46</v>
-      </c>
-      <c r="J85" t="s">
-        <v>46</v>
-      </c>
-      <c r="K85" t="s">
-        <v>46</v>
-      </c>
-      <c r="L85" t="s">
-        <v>46</v>
-      </c>
-      <c r="M85" t="s">
-        <v>427</v>
-      </c>
-      <c r="N85" t="s">
-        <v>46</v>
-      </c>
-      <c r="O85" t="s">
-        <v>46</v>
-      </c>
-      <c r="P85" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>46</v>
-      </c>
-      <c r="R85" t="s">
-        <v>46</v>
-      </c>
-      <c r="S85" t="s">
-        <v>46</v>
-      </c>
-      <c r="T85" t="s">
-        <v>46</v>
-      </c>
-      <c r="U85" t="s">
-        <v>46</v>
-      </c>
-      <c r="V85" t="s">
-        <v>46</v>
-      </c>
-      <c r="W85" t="s">
-        <v>46</v>
-      </c>
-      <c r="X85" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>46</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AD85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AE85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ85" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR85" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AR1 A83:L85 A3:L3 S3:AR3 A2:L2 S2:AR2 A4:L35 S4:AR35 A76:L82 S36:AR82 Q2 Q3 Q4:Q35 A57:L75 Q36:Q75 N3:O3 N4:O35 A36:L43 N36:O43 N2:O2 A44:L44 N44:O44 A45:L56 N45:O56 N76:Q82 N57:O75 N83:AR85" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AR1 A3:L3 A2:L2 A4:L35 Q2 Q3 Q4:Q35 Q36:Q55 N3 N4:N35 A36:L43 N36:N43 N2 A44:L44 N44 A45:L55 N55 N45:N54 U2 U3 U4:U35 U36:U55 W2:AO2 W3:AO3 W4:AO35 W36:AO55 AQ2:AR2 AQ3:AR3 AQ4:AR35 AQ36:AR55" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR56"/>
+  <dimension ref="A1:AR57"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -5515,10 +5515,144 @@
         <v/>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>56</v>
+      </c>
+      <c r="B57" t="str">
+        <v>xc</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v/>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v/>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+      <c r="K57" t="str">
+        <v/>
+      </c>
+      <c r="L57" t="str">
+        <v/>
+      </c>
+      <c r="M57" t="str">
+        <v>23-10-2002</v>
+      </c>
+      <c r="N57" t="str">
+        <v/>
+      </c>
+      <c r="O57" t="str">
+        <v>23-10-2002</v>
+      </c>
+      <c r="P57" t="str">
+        <v>23-01-2024</v>
+      </c>
+      <c r="Q57" t="str">
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <v>23-01-2024</v>
+      </c>
+      <c r="S57" t="str">
+        <v>23-01-2024</v>
+      </c>
+      <c r="T57" t="str">
+        <v>23-01-2024</v>
+      </c>
+      <c r="U57" t="str">
+        <v/>
+      </c>
+      <c r="V57" t="str">
+        <v>23-01-2024</v>
+      </c>
+      <c r="W57" t="str">
+        <v/>
+      </c>
+      <c r="X57" t="str">
+        <v/>
+      </c>
+      <c r="Y57" t="str">
+        <v/>
+      </c>
+      <c r="Z57" t="str">
+        <v/>
+      </c>
+      <c r="AA57" t="str">
+        <v/>
+      </c>
+      <c r="AB57" t="str">
+        <v/>
+      </c>
+      <c r="AC57" t="str">
+        <v/>
+      </c>
+      <c r="AD57" t="str">
+        <v/>
+      </c>
+      <c r="AE57" t="str">
+        <v/>
+      </c>
+      <c r="AF57" t="str">
+        <v/>
+      </c>
+      <c r="AG57" t="str">
+        <v/>
+      </c>
+      <c r="AH57" t="str">
+        <v/>
+      </c>
+      <c r="AI57" t="str">
+        <v/>
+      </c>
+      <c r="AJ57" t="str">
+        <v/>
+      </c>
+      <c r="AK57" t="str">
+        <v/>
+      </c>
+      <c r="AL57" t="str">
+        <v/>
+      </c>
+      <c r="AM57" t="str">
+        <v/>
+      </c>
+      <c r="AN57" t="str">
+        <v>ds</v>
+      </c>
+      <c r="AO57" t="str">
+        <v/>
+      </c>
+      <c r="AP57" t="str">
+        <v>23-01-2024</v>
+      </c>
+      <c r="AQ57" t="str">
+        <v/>
+      </c>
+      <c r="AR57" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AR56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AR57"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="360">
   <si>
     <t>SNO</t>
   </si>
@@ -1104,6 +1104,12 @@
   </si>
   <si>
     <t>35X 51K</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>JAP</t>
   </si>
 </sst>
 </file>
@@ -1482,13 +1488,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
@@ -1723,7 +1729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -2026,7 +2032,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>82</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>90</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>95</v>
       </c>
@@ -2284,7 +2290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -2367,7 +2373,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
@@ -2465,7 +2471,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>111</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="12" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>115</v>
       </c>
@@ -2619,7 +2625,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>127</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="15" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:44" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>135</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>139</v>
       </c>
@@ -3043,7 +3049,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>143</v>
       </c>
@@ -3126,7 +3132,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>147</v>
       </c>
@@ -3209,7 +3215,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -3292,7 +3298,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>156</v>
       </c>
@@ -3369,7 +3375,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>161</v>
       </c>
@@ -3464,7 +3470,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>170</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>179</v>
       </c>
@@ -3666,7 +3672,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>185</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>192</v>
       </c>
@@ -3862,7 +3868,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>200</v>
       </c>
@@ -3963,7 +3969,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>206</v>
       </c>
@@ -4064,7 +4070,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>212</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>217</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -4322,7 +4328,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>230</v>
       </c>
@@ -4426,7 +4432,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>234</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>238</v>
       </c>
@@ -4592,7 +4598,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>242</v>
       </c>
@@ -4675,7 +4681,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>246</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>250</v>
       </c>
@@ -4841,7 +4847,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="38" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>254</v>
       </c>
@@ -4924,7 +4930,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>258</v>
       </c>
@@ -5001,7 +5007,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>262</v>
       </c>
@@ -5084,7 +5090,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>266</v>
       </c>
@@ -5167,7 +5173,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>270</v>
       </c>
@@ -5250,7 +5256,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>274</v>
       </c>
@@ -5327,7 +5333,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>278</v>
       </c>
@@ -5338,7 +5344,7 @@
         <v>280</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E44" t="s">
         <v>281</v>
@@ -5410,7 +5416,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>284</v>
       </c>
@@ -5421,7 +5427,7 @@
         <v>157</v>
       </c>
       <c r="D45" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E45" t="s">
         <v>285</v>
@@ -5490,7 +5496,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="46" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>288</v>
       </c>
@@ -5501,7 +5507,7 @@
         <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E46" t="s">
         <v>289</v>
@@ -5573,7 +5579,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>292</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>280</v>
       </c>
       <c r="D47" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E47" t="s">
         <v>293</v>
@@ -5656,7 +5662,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>296</v>
       </c>
@@ -5667,7 +5673,7 @@
         <v>297</v>
       </c>
       <c r="D48" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E48" t="s">
         <v>298</v>
@@ -5739,7 +5745,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>301</v>
       </c>
@@ -5750,7 +5756,7 @@
         <v>157</v>
       </c>
       <c r="D49" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E49" t="s">
         <v>302</v>
@@ -5819,7 +5825,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>305</v>
       </c>
@@ -5830,7 +5836,7 @@
         <v>162</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E50" t="s">
         <v>356</v>
@@ -5920,7 +5926,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>310</v>
       </c>
@@ -5931,7 +5937,7 @@
         <v>280</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E51" t="s">
         <v>311</v>
@@ -6021,7 +6027,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>318</v>
       </c>
@@ -6032,7 +6038,7 @@
         <v>297</v>
       </c>
       <c r="D52" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E52" t="s">
         <v>355</v>
@@ -6122,7 +6128,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>321</v>
       </c>
@@ -6133,7 +6139,7 @@
         <v>280</v>
       </c>
       <c r="D53" t="s">
-        <v>47</v>
+        <v>359</v>
       </c>
       <c r="E53" t="s">
         <v>357</v>
@@ -6223,7 +6229,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>324</v>
       </c>
@@ -6234,7 +6240,7 @@
         <v>280</v>
       </c>
       <c r="D54" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="E54" t="s">
         <v>354</v>
@@ -6324,7 +6330,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>328</v>
       </c>
@@ -6335,7 +6341,7 @@
         <v>280</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="E55" t="s">
         <v>325</v>
@@ -6428,7 +6434,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>341</v>
       </c>
@@ -6439,7 +6445,7 @@
         <v>46</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>358</v>
       </c>
       <c r="E56" t="s">
         <v>128</v>
@@ -6514,7 +6520,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AR2 A6:AR49 A5:D5 F5:AR5 A4:AR4 A3:D3 F3:AR3 A55:AR56 A54:D54 F54:AR54 A53:D53 A52:D52 F52:AR52 A51:D51 A50:D50 F50:AR50 F53:AR53 F51:AR51" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AR2 A6:AR43 A5:D5 F5:AR5 A4:AR4 A3:D3 F3:AR3 A55:C56 A54:C54 F54:AR54 A53:C53 A52:C52 F52:AR52 A51:C51 A50:C50 F50:AR50 F53:AR53 F51:AR51 E55:AR56 A45:C49 A44:C44 E44:AR44 E45:AR49" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CZ3"/>
+  <dimension ref="A1:CZ4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1344,9 +1344,323 @@
         <v/>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <v>848</v>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v>8484</v>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v>8</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>498</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v>498</v>
+      </c>
+      <c r="K4" t="str">
+        <v/>
+      </c>
+      <c r="L4" t="str">
+        <v>489</v>
+      </c>
+      <c r="M4" t="str">
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <v>489</v>
+      </c>
+      <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
+        <v>498</v>
+      </c>
+      <c r="Q4" t="str">
+        <v/>
+      </c>
+      <c r="R4" t="str">
+        <v>49</v>
+      </c>
+      <c r="S4" t="str">
+        <v/>
+      </c>
+      <c r="T4" t="str">
+        <v>4</v>
+      </c>
+      <c r="U4" t="str">
+        <v/>
+      </c>
+      <c r="V4" t="str">
+        <v>849</v>
+      </c>
+      <c r="W4" t="str">
+        <v/>
+      </c>
+      <c r="X4" t="str">
+        <v/>
+      </c>
+      <c r="Y4" t="str">
+        <v/>
+      </c>
+      <c r="Z4" t="str">
+        <v/>
+      </c>
+      <c r="AA4" t="str">
+        <v/>
+      </c>
+      <c r="AB4" t="str">
+        <v/>
+      </c>
+      <c r="AC4" t="str">
+        <v/>
+      </c>
+      <c r="AD4" t="str">
+        <v/>
+      </c>
+      <c r="AE4" t="str">
+        <v/>
+      </c>
+      <c r="AF4" t="str">
+        <v/>
+      </c>
+      <c r="AG4" t="str">
+        <v/>
+      </c>
+      <c r="AH4" t="str">
+        <v/>
+      </c>
+      <c r="AI4" t="str">
+        <v/>
+      </c>
+      <c r="AJ4" t="str">
+        <v/>
+      </c>
+      <c r="AK4" t="str">
+        <v/>
+      </c>
+      <c r="AL4" t="str">
+        <v/>
+      </c>
+      <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <v/>
+      </c>
+      <c r="BA4" t="str">
+        <v/>
+      </c>
+      <c r="BB4" t="str">
+        <v/>
+      </c>
+      <c r="BC4" t="str">
+        <v/>
+      </c>
+      <c r="BD4" t="str">
+        <v/>
+      </c>
+      <c r="BE4" t="str">
+        <v/>
+      </c>
+      <c r="BF4" t="str">
+        <v/>
+      </c>
+      <c r="BG4" t="str">
+        <v/>
+      </c>
+      <c r="BH4" t="str">
+        <v/>
+      </c>
+      <c r="BI4" t="str">
+        <v/>
+      </c>
+      <c r="BJ4" t="str">
+        <v/>
+      </c>
+      <c r="BK4" t="str">
+        <v/>
+      </c>
+      <c r="BL4" t="str">
+        <v/>
+      </c>
+      <c r="BM4" t="str">
+        <v/>
+      </c>
+      <c r="BN4" t="str">
+        <v/>
+      </c>
+      <c r="BO4" t="str">
+        <v/>
+      </c>
+      <c r="BP4" t="str">
+        <v/>
+      </c>
+      <c r="BQ4" t="str">
+        <v/>
+      </c>
+      <c r="BR4" t="str">
+        <v/>
+      </c>
+      <c r="BS4" t="str">
+        <v/>
+      </c>
+      <c r="BT4" t="str">
+        <v/>
+      </c>
+      <c r="BU4" t="str">
+        <v/>
+      </c>
+      <c r="BV4" t="str">
+        <v/>
+      </c>
+      <c r="BW4" t="str">
+        <v/>
+      </c>
+      <c r="BX4" t="str">
+        <v/>
+      </c>
+      <c r="BY4" t="str">
+        <v/>
+      </c>
+      <c r="BZ4" t="str">
+        <v/>
+      </c>
+      <c r="CA4" t="str">
+        <v/>
+      </c>
+      <c r="CB4" t="str">
+        <v/>
+      </c>
+      <c r="CC4" t="str">
+        <v/>
+      </c>
+      <c r="CD4" t="str">
+        <v/>
+      </c>
+      <c r="CE4" t="str">
+        <v/>
+      </c>
+      <c r="CF4" t="str">
+        <v/>
+      </c>
+      <c r="CG4" t="str">
+        <v/>
+      </c>
+      <c r="CH4" t="str">
+        <v/>
+      </c>
+      <c r="CI4" t="str">
+        <v/>
+      </c>
+      <c r="CJ4" t="str">
+        <v/>
+      </c>
+      <c r="CK4" t="str">
+        <v/>
+      </c>
+      <c r="CL4" t="str">
+        <v/>
+      </c>
+      <c r="CM4" t="str">
+        <v/>
+      </c>
+      <c r="CN4" t="str">
+        <v/>
+      </c>
+      <c r="CO4" t="str">
+        <v/>
+      </c>
+      <c r="CP4" t="str">
+        <v/>
+      </c>
+      <c r="CQ4" t="str">
+        <v/>
+      </c>
+      <c r="CR4" t="str">
+        <v/>
+      </c>
+      <c r="CS4" t="str">
+        <v/>
+      </c>
+      <c r="CT4" t="str">
+        <v/>
+      </c>
+      <c r="CU4" t="str">
+        <v/>
+      </c>
+      <c r="CV4" t="str">
+        <v/>
+      </c>
+      <c r="CW4" t="str">
+        <v/>
+      </c>
+      <c r="CX4" t="str">
+        <v/>
+      </c>
+      <c r="CY4" t="str">
+        <v/>
+      </c>
+      <c r="CZ4" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:CZ3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:CZ4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="302">
   <si>
     <t>SNO</t>
   </si>
@@ -651,9 +651,6 @@
     <t>19</t>
   </si>
   <si>
-    <t>BMP</t>
-  </si>
-  <si>
     <t>05X 4N</t>
   </si>
   <si>
@@ -922,6 +919,12 @@
   </si>
   <si>
     <t>OH</t>
+  </si>
+  <si>
+    <t>ICV BMP II</t>
+  </si>
+  <si>
+    <t>MBT ARJUN</t>
   </si>
 </sst>
 </file>
@@ -1300,13 +1303,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -1643,7 +1646,7 @@
         <v>110</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H2" t="s">
         <v>112</v>
@@ -1940,7 +1943,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>176</v>
       </c>
@@ -2340,7 +2343,7 @@
         <v>130</v>
       </c>
       <c r="AB4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AC4" t="s">
         <v>131</v>
@@ -2574,7 +2577,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>177</v>
       </c>
@@ -2657,7 +2660,7 @@
         <v>130</v>
       </c>
       <c r="AB5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AC5" t="s">
         <v>131</v>
@@ -2891,7 +2894,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>157</v>
       </c>
@@ -2974,7 +2977,7 @@
         <v>130</v>
       </c>
       <c r="AB6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AC6" t="s">
         <v>131</v>
@@ -3208,7 +3211,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>130</v>
       </c>
       <c r="AB7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AC7" t="s">
         <v>131</v>
@@ -3525,7 +3528,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -3536,7 +3539,7 @@
         <v>107</v>
       </c>
       <c r="D8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E8" t="s">
         <v>183</v>
@@ -3608,7 +3611,7 @@
         <v>130</v>
       </c>
       <c r="AB8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AC8" t="s">
         <v>131</v>
@@ -3842,7 +3845,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>184</v>
       </c>
@@ -3853,7 +3856,7 @@
         <v>107</v>
       </c>
       <c r="D9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E9" t="s">
         <v>183</v>
@@ -3925,7 +3928,7 @@
         <v>130</v>
       </c>
       <c r="AB9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AC9" t="s">
         <v>131</v>
@@ -4159,7 +4162,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>186</v>
       </c>
@@ -4170,7 +4173,7 @@
         <v>107</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -4242,7 +4245,7 @@
         <v>130</v>
       </c>
       <c r="AB10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AC10" t="s">
         <v>131</v>
@@ -4476,7 +4479,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="11" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>189</v>
       </c>
@@ -4487,7 +4490,7 @@
         <v>107</v>
       </c>
       <c r="D11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E11" t="s">
         <v>191</v>
@@ -4559,7 +4562,7 @@
         <v>130</v>
       </c>
       <c r="AB11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AC11" t="s">
         <v>131</v>
@@ -4793,7 +4796,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="12" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>192</v>
       </c>
@@ -4804,7 +4807,7 @@
         <v>107</v>
       </c>
       <c r="D12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E12" t="s">
         <v>194</v>
@@ -5110,7 +5113,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>195</v>
       </c>
@@ -5121,7 +5124,7 @@
         <v>107</v>
       </c>
       <c r="D13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E13" t="s">
         <v>197</v>
@@ -5427,7 +5430,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="14" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>199</v>
       </c>
       <c r="D14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E14" t="s">
         <v>197</v>
@@ -5510,7 +5513,7 @@
         <v>130</v>
       </c>
       <c r="AB14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AC14" t="s">
         <v>131</v>
@@ -5744,7 +5747,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>200</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
         <v>201</v>
@@ -5827,7 +5830,7 @@
         <v>130</v>
       </c>
       <c r="AB15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AC15" t="s">
         <v>131</v>
@@ -6061,7 +6064,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="16" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>202</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>199</v>
       </c>
       <c r="D16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E16" t="s">
         <v>201</v>
@@ -6378,7 +6381,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="17" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>203</v>
       </c>
@@ -6389,7 +6392,7 @@
         <v>199</v>
       </c>
       <c r="D17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E17" t="s">
         <v>204</v>
@@ -6398,7 +6401,7 @@
         <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H17" t="s">
         <v>112</v>
@@ -6461,7 +6464,7 @@
         <v>130</v>
       </c>
       <c r="AB17" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AC17" t="s">
         <v>131</v>
@@ -6695,7 +6698,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="18" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>205</v>
       </c>
@@ -6706,7 +6709,7 @@
         <v>199</v>
       </c>
       <c r="D18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E18" t="s">
         <v>206</v>
@@ -6778,7 +6781,7 @@
         <v>130</v>
       </c>
       <c r="AB18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AC18" t="s">
         <v>131</v>
@@ -7012,7 +7015,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="19" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>207</v>
       </c>
@@ -7023,7 +7026,7 @@
         <v>199</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E19" t="s">
         <v>208</v>
@@ -7095,7 +7098,7 @@
         <v>130</v>
       </c>
       <c r="AB19" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AC19" t="s">
         <v>131</v>
@@ -7329,7 +7332,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="20" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>209</v>
       </c>
@@ -7337,13 +7340,13 @@
         <v>106</v>
       </c>
       <c r="C20" t="s">
+        <v>300</v>
+      </c>
+      <c r="D20" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" t="s">
         <v>210</v>
-      </c>
-      <c r="D20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20" t="s">
-        <v>211</v>
       </c>
       <c r="F20" t="s">
         <v>110</v>
@@ -7412,7 +7415,7 @@
         <v>130</v>
       </c>
       <c r="AB20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AC20" t="s">
         <v>131</v>
@@ -7646,21 +7649,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B21" t="s">
         <v>106</v>
       </c>
       <c r="C21" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F21" t="s">
         <v>110</v>
@@ -7729,7 +7732,7 @@
         <v>130</v>
       </c>
       <c r="AB21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AC21" t="s">
         <v>131</v>
@@ -7963,7 +7966,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="22" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -7971,13 +7974,13 @@
         <v>185</v>
       </c>
       <c r="C22" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F22" t="s">
         <v>110</v>
@@ -8046,7 +8049,7 @@
         <v>130</v>
       </c>
       <c r="AB22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="AC22" t="s">
         <v>131</v>
@@ -8280,7 +8283,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>168</v>
       </c>
@@ -8288,13 +8291,13 @@
         <v>185</v>
       </c>
       <c r="C23" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D23" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F23" t="s">
         <v>110</v>
@@ -8597,21 +8600,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="24" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s">
         <v>185</v>
       </c>
       <c r="C24" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F24" t="s">
         <v>110</v>
@@ -8680,7 +8683,7 @@
         <v>130</v>
       </c>
       <c r="AB24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AC24" t="s">
         <v>131</v>
@@ -8914,21 +8917,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s">
         <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D25" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E25" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F25" t="s">
         <v>110</v>
@@ -8997,7 +9000,7 @@
         <v>130</v>
       </c>
       <c r="AB25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AC25" t="s">
         <v>131</v>
@@ -9231,21 +9234,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="26" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s">
         <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D26" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
         <v>110</v>
@@ -9314,7 +9317,7 @@
         <v>130</v>
       </c>
       <c r="AB26" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AC26" t="s">
         <v>131</v>
@@ -9548,21 +9551,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B27" t="s">
         <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D27" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F27" t="s">
         <v>110</v>
@@ -9631,7 +9634,7 @@
         <v>130</v>
       </c>
       <c r="AB27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AC27" t="s">
         <v>131</v>
@@ -9865,21 +9868,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="28" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" t="s">
         <v>193</v>
       </c>
       <c r="C28" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D28" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F28" t="s">
         <v>110</v>
@@ -9948,7 +9951,7 @@
         <v>130</v>
       </c>
       <c r="AB28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AC28" t="s">
         <v>131</v>
@@ -10182,21 +10185,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="29" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B29" t="s">
         <v>193</v>
       </c>
       <c r="C29" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F29" t="s">
         <v>110</v>
@@ -10265,7 +10268,7 @@
         <v>130</v>
       </c>
       <c r="AB29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AC29" t="s">
         <v>131</v>
@@ -10499,21 +10502,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="30" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
         <v>193</v>
       </c>
       <c r="C30" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" t="s">
         <v>110</v>
@@ -10582,7 +10585,7 @@
         <v>130</v>
       </c>
       <c r="AB30" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AC30" t="s">
         <v>131</v>
@@ -10816,21 +10819,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B31" t="s">
         <v>193</v>
       </c>
       <c r="C31" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F31" t="s">
         <v>110</v>
@@ -10899,7 +10902,7 @@
         <v>130</v>
       </c>
       <c r="AB31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AC31" t="s">
         <v>131</v>
@@ -11133,21 +11136,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="32" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B32" t="s">
         <v>193</v>
       </c>
       <c r="C32" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D32" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F32" t="s">
         <v>110</v>
@@ -11216,7 +11219,7 @@
         <v>130</v>
       </c>
       <c r="AB32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AC32" t="s">
         <v>131</v>
@@ -11450,21 +11453,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33" t="s">
         <v>190</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D33" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s">
         <v>110</v>
@@ -11533,7 +11536,7 @@
         <v>130</v>
       </c>
       <c r="AB33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AC33" t="s">
         <v>131</v>
@@ -11767,21 +11770,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="34" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s">
         <v>190</v>
       </c>
       <c r="C34" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D34" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F34" t="s">
         <v>110</v>
@@ -11850,7 +11853,7 @@
         <v>130</v>
       </c>
       <c r="AB34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AC34" t="s">
         <v>131</v>
@@ -12084,21 +12087,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="35" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s">
         <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D35" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F35" t="s">
         <v>110</v>
@@ -12167,7 +12170,7 @@
         <v>130</v>
       </c>
       <c r="AB35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AC35" t="s">
         <v>131</v>
@@ -12401,21 +12404,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="36" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s">
         <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D36" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E36" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
         <v>110</v>
@@ -12484,7 +12487,7 @@
         <v>130</v>
       </c>
       <c r="AB36" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AC36" t="s">
         <v>131</v>
@@ -12718,21 +12721,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="37" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s">
         <v>190</v>
       </c>
       <c r="C37" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
         <v>110</v>
@@ -12801,7 +12804,7 @@
         <v>130</v>
       </c>
       <c r="AB37" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AC37" t="s">
         <v>131</v>
@@ -13035,21 +13038,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="38" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B38" t="s">
         <v>190</v>
       </c>
       <c r="C38" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D38" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E38" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F38" t="s">
         <v>110</v>
@@ -13118,7 +13121,7 @@
         <v>130</v>
       </c>
       <c r="AB38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AC38" t="s">
         <v>131</v>
@@ -13352,21 +13355,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B39" t="s">
         <v>190</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D39" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
         <v>110</v>
@@ -13435,7 +13438,7 @@
         <v>130</v>
       </c>
       <c r="AB39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AC39" t="s">
         <v>131</v>
@@ -13669,21 +13672,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" t="s">
         <v>190</v>
       </c>
       <c r="C40" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D40" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s">
         <v>110</v>
@@ -13752,7 +13755,7 @@
         <v>130</v>
       </c>
       <c r="AB40" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AC40" t="s">
         <v>131</v>
@@ -13986,21 +13989,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="41" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B41" t="s">
         <v>193</v>
       </c>
       <c r="C41" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D41" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
         <v>110</v>
@@ -14069,7 +14072,7 @@
         <v>130</v>
       </c>
       <c r="AB41" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AC41" t="s">
         <v>131</v>
@@ -14303,21 +14306,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B42" t="s">
         <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D42" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
         <v>110</v>
@@ -14386,7 +14389,7 @@
         <v>130</v>
       </c>
       <c r="AB42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AC42" t="s">
         <v>131</v>
@@ -14620,21 +14623,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B43" t="s">
         <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E43" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
         <v>110</v>
@@ -14703,7 +14706,7 @@
         <v>130</v>
       </c>
       <c r="AB43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AC43" t="s">
         <v>131</v>
@@ -14937,21 +14940,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="44" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B44" t="s">
         <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>210</v>
+        <v>300</v>
       </c>
       <c r="D44" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E44" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44" t="s">
         <v>110</v>
@@ -15020,7 +15023,7 @@
         <v>130</v>
       </c>
       <c r="AB44" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AC44" t="s">
         <v>131</v>
@@ -15254,21 +15257,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B45" t="s">
         <v>190</v>
       </c>
       <c r="C45" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="D45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F45" t="s">
         <v>110</v>
@@ -15571,21 +15574,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="46" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B46" t="s">
         <v>190</v>
       </c>
       <c r="C46" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="D46" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E46" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F46" t="s">
         <v>110</v>
@@ -15654,7 +15657,7 @@
         <v>130</v>
       </c>
       <c r="AB46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AC46" t="s">
         <v>131</v>
@@ -15888,21 +15891,21 @@
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:105" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:105" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B47" t="s">
         <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="D47" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F47" t="s">
         <v>110</v>
@@ -16209,7 +16212,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:DA1 A22:C46 A8:C8 E8:AA8 A9:C20 E9:AA16 A47:C47 E47:AA47 A21:C21 E21:AA21 E22:AA46 A3:AA7 AC3:DA7 AC8:DA8 AC9:DA20 AC47:DA47 AC21:DA21 AC22:DA46 A2:F2 AC2:DA2 H2:AA2 E18:AA20 E17:F17 H17:AA17" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:DA1 A22:B46 A8:C8 E8:AA8 A10:C19 E9:AA16 A47:B47 E47:AA47 A21:B21 E21:AA21 E22:AA46 A3:AA7 AC3:DA7 AC8:DA8 AC9:DA20 AC47:DA47 AC21:DA21 AC22:DA46 A2:F2 AC2:DA2 H2:AA2 E18:AA20 E17:F17 H17:AA17 A9:B9 A20:B20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4931" uniqueCount="304">
   <si>
     <t>SNO</t>
   </si>
@@ -925,6 +925,12 @@
   </si>
   <si>
     <t>test</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>NEW</t>
   </si>
 </sst>
 </file>
@@ -1303,8 +1309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BL2" sqref="BL2:BL47"/>
+    <sheetView tabSelected="1" topLeftCell="P37" workbookViewId="0">
+      <selection activeCell="X43" sqref="X43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3578,7 +3584,7 @@
         <v>119</v>
       </c>
       <c r="P8" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="Q8" t="s">
         <v>121</v>
@@ -14697,7 +14703,7 @@
         <v>126</v>
       </c>
       <c r="X43" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="Y43" t="s">
         <v>128</v>
@@ -16215,7 +16221,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BK1 A22:B46 A8:C8 E8:AA8 A10:C19 E9:AA16 A47:B47 E47:AA47 A21:B21 E21:AA21 E22:AA46 A3:AA7 AC3:BK7 AC8:BK8 AC9:BK20 AC47:BK47 AC21:BK21 AC22:BK46 A2:F2 AC2:BK2 H2:AA2 E18:AA20 E17:F17 H17:AA17 A9:B9 A20:B20 BM1:DA1 BM2:DA2 BM3:DA7 BM8:DA8 BM9:DA20 BM47:DA47 BM21:DA21 BM22:DA46" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:BK1 A22:B46 A8:C8 E8:O8 A10:C19 E10:AA16 A47:B47 E47:AA47 A21:B21 E21:AA21 E22:AA42 A3:AA7 AC3:BK7 AC8:BK8 AC9:BK20 AC47:BK47 AC21:BK21 AC22:BK46 A2:F2 AC2:BK2 H2:AA2 E18:AA20 E17:F17 H17:AA17 A9:B9 A20:B20 BM1:DA1 BM2:DA2 BM3:DA7 BM8:DA8 BM9:DA20 BM47:DA47 BM21:DA21 BM22:DA46 Q8:AA8 E9:S9 U9:AA9 E44:AA46 E43:W43 Y43:AA43" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>